--- a/t1a - snell.xlsx
+++ b/t1a - snell.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uporto-my.sharepoint.com/personal/up202107940_up_pt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5042E47-17BC-452A-A8C1-989D79DC2771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BC666-B471-4FCC-AB25-4E8195B4C25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB603AAF-03AE-4A56-BE8E-5B256B97D4E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Superfície Plana" sheetId="2" r:id="rId1"/>
+    <sheet name="Superfície Curva" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>u(θi)</t>
   </si>
@@ -284,6 +282,9 @@
     <t>fit+sy</t>
   </si>
   <si>
+    <t>Superfície Plana</t>
+  </si>
+  <si>
     <r>
       <t>n</t>
     </r>
@@ -291,7 +292,6 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -301,7 +301,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -312,7 +311,6 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -328,7 +326,6 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -338,7 +335,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -349,7 +345,6 @@
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -357,17 +352,18 @@
       <t>acrílico</t>
     </r>
   </si>
+  <si>
+    <t>Superfície Curva</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +409,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -421,7 +426,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +433,12 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="12"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,18 +549,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -562,9 +565,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -580,16 +580,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -612,7 +625,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -623,17 +636,88 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Sen(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>t)[Sen(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>i)]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2423111111111114E-2"/>
-          <c:y val="5.2331505289340406E-2"/>
-          <c:w val="0.870495111111111"/>
-          <c:h val="0.80397075129611317"/>
+          <c:x val="0.13835565431505614"/>
+          <c:y val="0.13699814814814815"/>
+          <c:w val="0.81456248873941517"/>
+          <c:h val="0.69051296296296305"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -654,7 +738,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -698,8 +782,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6131111111111112E-3"/>
-                  <c:y val="-2.6827669393748688E-2"/>
+                  <c:x val="0.13983144155506175"/>
+                  <c:y val="-0.62061851851851857"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -761,73 +845,73 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>'Superfície Plana'!$E$3:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.65028784015711683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.13235175009777303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.42818266949615102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.85090352453411844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-0.99975517335861985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.82682867949010341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.38778163540943045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$9</c:f>
+              <c:f>'Superfície Plana'!$F$3:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.53657291800043494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.96139749187955681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.14987720966295234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.90557836200662389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.76255845047960269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.55142668124169059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.99991186010726718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.42818266949615102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,7 +919,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F40A-4427-81E6-215BD5C868A0}"/>
+              <c16:uniqueId val="{00000002-5CB4-42DA-BBB6-E485A3ECF9E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -862,66 +946,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>'Superfície Plana'!$E$3:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.65028784015711683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.13235175009777303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.42818266949615102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.85090352453411844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-0.99975517335861985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.82682867949010341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.38778163540943045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$9</c:f>
+              <c:f>'Superfície Plana'!$R$2:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.74516500799802321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.92002270879054537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.70957657886120962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.63002978251201114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.97396681653305717</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.47633806679813784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.96749326468205588</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.64089332861236181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +1013,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F40A-4427-81E6-215BD5C868A0}"/>
+              <c16:uniqueId val="{00000003-5CB4-42DA-BBB6-E485A3ECF9E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -956,66 +1040,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>'Superfície Plana'!$E$3:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.65028784015711683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.13235175009777303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.42818266949615102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.85090352453411844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-0.99975517335861985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.82682867949010341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.38778163540943045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$9</c:f>
+              <c:f>'Superfície Plana'!$S$2:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.86269569067164076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.68783798987911859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.89828411980845435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.97783091615765283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.6338938821366068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1.1315226318715261</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.64036743398760809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.96696737005730216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,7 +1107,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F40A-4427-81E6-215BD5C868A0}"/>
+              <c16:uniqueId val="{00000004-5CB4-42DA-BBB6-E485A3ECF9E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1042,6 +1126,8 @@
         <c:axId val="1139094816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1066,7 +1152,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1079,15 +1165,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:rPr lang="pt-PT" sz="1600"/>
                   <a:t>sen(</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:rPr lang="el-GR" sz="1600"/>
                   <a:t>θ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:rPr lang="pt-PT" sz="1600"/>
                   <a:t>i)</a:t>
                 </a:r>
               </a:p>
@@ -1114,7 +1200,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1126,12 +1212,12 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1164,17 +1250,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1139095232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1259,7 +1347,614 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139094816"/>
+        <c:crossesAt val="-1.1000000000000001"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70997637779512734"/>
+          <c:y val="0.51343941048440411"/>
+          <c:w val="0.24298941004544272"/>
+          <c:h val="0.31840082009226039"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Resíduos </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sen(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>t)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>[Sen(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>i</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15450022222222223"/>
+          <c:y val="0.1715553661698935"/>
+          <c:w val="0.80175777777777779"/>
+          <c:h val="0.58918170825867167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>resíduos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Superfície Plana'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65028784015711683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.13235175009777303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.42818266949615102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85090352453411844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.99975517335861985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82682867949010341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38778163540943045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Superfície Plana'!$Q$2:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.47780757666362611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0774898513352702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24423098013657465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.73167779518380305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59252198328137751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87901896377838473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83634894476004329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.26514564877368085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E129-4850-8AD3-CC50393519E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="937293743"/>
+        <c:axId val="937298319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="937293743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>sen(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1600"/>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>i)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937298319"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="937298319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>Resíduos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1297,11 +1992,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1139094816"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="937293743"/>
+        <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1312,6 +2007,49 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81197636992623623"/>
+          <c:y val="0.69706669284068001"/>
+          <c:w val="0.14004591169223113"/>
+          <c:h val="5.9560785511229376E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1345,7 +2083,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1356,10 +2094,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1370,9 +2108,1012 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Sen(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>t)[Sen(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>i)]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13835565431505614"/>
+          <c:y val="0.13699814814814815"/>
+          <c:w val="0.81456248873941517"/>
+          <c:h val="0.69051296296296305"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>regressao</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13983144155506175"/>
+                  <c:y val="-0.62061851851851857"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,6556x + 0,338</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Superfície Curva'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65028784015711683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.13235175009777303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.42818266949615102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85090352453411844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.99975517335861985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82682867949010341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38778163540943045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Superfície Curva'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.53657291800043494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.96139749187955681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14987720966295234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.90557836200662389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76255845047960269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55142668124169059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99991186010726718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42818266949615102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F40A-4427-81E6-215BD5C868A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>+sy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Superfície Curva'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65028784015711683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.13235175009777303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.42818266949615102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85090352453411844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.99975517335861985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82682867949010341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38778163540943045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Superfície Curva'!$R$2:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.74516500799802321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92002270879054537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70957657886120962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63002978251201114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97396681653305717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47633806679813784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96749326468205588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64089332861236181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F40A-4427-81E6-215BD5C868A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>-sy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Superfície Curva'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65028784015711683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.13235175009777303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.42818266949615102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85090352453411844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.99975517335861985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82682867949010341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38778163540943045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Superfície Curva'!$S$2:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.86269569067164076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.68783798987911859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.89828411980845435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.97783091615765283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.6338938821366068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1315226318715261</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.64036743398760809</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.96696737005730216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F40A-4427-81E6-215BD5C868A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1139094816"/>
+        <c:axId val="1139095232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1139094816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>sen(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1600"/>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>i)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46572755555555556"/>
+              <c:y val="0.88008930444424471"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139095232"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1139095232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>sen(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1600"/>
+                  <a:t>θ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>t)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2577777777777776E-2"/>
+              <c:y val="0.37138324492792718"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139094816"/>
+        <c:crossesAt val="-1.1000000000000001"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70997637779512734"/>
+          <c:y val="0.51343941048440411"/>
+          <c:w val="0.24298941004544272"/>
+          <c:h val="0.31840082009226039"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Resíduos </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sen(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>t)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>[Sen(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>θ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>i</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15450022222222223"/>
+          <c:y val="0.1715553661698935"/>
+          <c:w val="0.80175777777777779"/>
+          <c:h val="0.58918170825867167"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1404,66 +3145,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>'Superfície Curva'!$E$3:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.65028784015711683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.13235175009777303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.42818266949615102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.85090352453411844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-0.99975517335861985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.82682867949010341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.38778163540943045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$9</c:f>
+              <c:f>'Superfície Curva'!$Q$2:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-0.47780757666362611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.0774898513352702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.24423098013657465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.73167779518380305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.59252198328137751</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.87901896377838473</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.83634894476004329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.26514564877368085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,6 +3231,7 @@
         <c:axId val="937293743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1514,7 +3256,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1527,15 +3269,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
+                  <a:rPr lang="pt-PT" sz="1600"/>
                   <a:t>sen(</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR"/>
+                  <a:rPr lang="el-GR" sz="1600"/>
                   <a:t>θ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
+                  <a:rPr lang="pt-PT" sz="1600"/>
                   <a:t>i)</a:t>
                 </a:r>
               </a:p>
@@ -1554,7 +3296,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1566,7 +3308,125 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937298319"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="937298319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1600"/>
+                  <a:t>Resíduos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1604,128 +3464,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="937298319"/>
-        <c:crossesAt val="-3.0000000000000009E-3"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="937298319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Resíduos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1736,6 +3479,49 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81197636992623623"/>
+          <c:y val="0.69706669284068001"/>
+          <c:w val="0.14004591169223113"/>
+          <c:h val="5.9560785511229376E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1769,7 +3555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1860,6 +3646,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2892,20 +4758,1133 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309611</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>354720</xdr:colOff>
+      <xdr:colOff>245231</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>154920</xdr:rowOff>
+      <xdr:rowOff>162540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3ECDD4-D80D-4690-AE24-53EDBE7AC9DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFFDBE2-D107-441D-807A-E2A39FF7D7B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309611</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>245231</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>162540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2934,16 +5913,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>362340</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>162540</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2973,120 +5952,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="M1 - white"/>
-      <sheetName val="M2 - white"/>
-      <sheetName val="M1 - red"/>
-      <sheetName val="M2 - red"/>
-      <sheetName val="M1 - blue"/>
-      <sheetName val="M2 - blue"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>0.17364817766693033</v>
-          </cell>
-          <cell r="E2">
-            <v>0.13052619222005157</v>
-          </cell>
-          <cell r="G2">
-            <v>-1.7395304235829079E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>0.34202014332566871</v>
-          </cell>
-          <cell r="E3">
-            <v>0.24699901272274291</v>
-          </cell>
-          <cell r="G3">
-            <v>2.1172205254950394E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0.49999999999999994</v>
-          </cell>
-          <cell r="E4">
-            <v>0.35020738125946738</v>
-          </cell>
-          <cell r="G4">
-            <v>-3.3968875110640395E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0.64278760968653925</v>
-          </cell>
-          <cell r="E5">
-            <v>0.44619781310980877</v>
-          </cell>
-          <cell r="G5">
-            <v>1.4684302334388999E-4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>0.76604444311897801</v>
-          </cell>
-          <cell r="E6">
-            <v>0.5299192642332049</v>
-          </cell>
-          <cell r="G6">
-            <v>1.4276094847844867E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0.8660254037844386</v>
-          </cell>
-          <cell r="E7">
-            <v>0.59482278675134126</v>
-          </cell>
-          <cell r="G7">
-            <v>-5.4141875864499589E-4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.93969262078590832</v>
-          </cell>
-          <cell r="E8">
-            <v>0.64278760968653925</v>
-          </cell>
-          <cell r="G8">
-            <v>-1.8491240688762733E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>0.98480775301220802</v>
-          </cell>
-          <cell r="E9">
-            <v>0.67559020761566024</v>
-          </cell>
-          <cell r="G9">
-            <v>7.7808896858677645E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3381,11 +6248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F272FC-94AB-4B2A-A458-025F0DDF11B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4618EF-F52A-472E-B137-6860B6AEFBE1}">
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3399,380 +6266,488 @@
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="P1" s="12" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <f>SIN(A2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <f>SIN(C2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="P2">
-        <f>$B$14*E2+$C$14</f>
-        <v>0</v>
+        <f>$B$17*E3+$C$17</f>
+        <v>-5.8765341336808809E-2</v>
       </c>
       <c r="Q2">
-        <f>F2-P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="11">
-        <f>P2+$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
-        <f>P2-$C$16</f>
-        <v>0</v>
+        <f>F3-P2</f>
+        <v>-0.47780757666362611</v>
+      </c>
+      <c r="R2" s="8">
+        <f>P2+$C$19</f>
+        <v>0.74516500799802321</v>
+      </c>
+      <c r="S2" s="8">
+        <f>P2-$C$19</f>
+        <v>-0.86269569067164076</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E9" si="0">SIN(A3)</f>
+      <c r="A3" s="19">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F9" si="1">SIN(C3)</f>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19">
+        <f>SIN(A3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="F3" s="19">
+        <f>SIN(C3)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="P3">
-        <f t="shared" ref="P3:P9" si="2">$B$14*E3+$C$14</f>
-        <v>0</v>
+        <f>$B$17*E4+$C$17</f>
+        <v>0.11609235945571336</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q9" si="3">F3-P3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="11">
-        <f t="shared" ref="R3:S9" si="4">P3+$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
-        <f t="shared" ref="S3:S9" si="5">P3-$C$16</f>
-        <v>0</v>
+        <f>F4-P3</f>
+        <v>-1.0774898513352702</v>
+      </c>
+      <c r="R3" s="8">
+        <f>P3+$C$19</f>
+        <v>0.92002270879054537</v>
+      </c>
+      <c r="S3" s="8">
+        <f>P3-$C$19</f>
+        <v>-0.68783798987911859</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="A4" s="19">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <f t="shared" ref="E4:E12" si="0">SIN(A4)</f>
+        <v>0.65028784015711683</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" ref="F4:F12" si="1">SIN(C4)</f>
+        <v>-0.96139749187955681</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="P4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>$B$17*E5+$C$17</f>
+        <v>-9.4353770473622312E-2</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F5-P4</f>
+        <v>0.24423098013657465</v>
+      </c>
+      <c r="R4" s="8">
+        <f>P4+$C$19</f>
+        <v>0.70957657886120962</v>
+      </c>
+      <c r="S4" s="8">
+        <f>P4-$C$19</f>
+        <v>-0.89828411980845435</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="A5" s="19">
+        <v>25</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+        <v>-0.13235175009777303</v>
+      </c>
+      <c r="F5" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>0.14987720966295234</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="P5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>$B$17*E6+$C$17</f>
+        <v>-0.17390056682282082</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <f>P5+$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F6-P5</f>
+        <v>-0.73167779518380305</v>
+      </c>
+      <c r="R5" s="8">
+        <f>P5+$C$19</f>
+        <v>0.63002978251201114</v>
+      </c>
+      <c r="S5" s="8">
+        <f>P5-$C$19</f>
+        <v>-0.97783091615765283</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
+      <c r="A6" s="19">
+        <v>35</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19">
+        <v>24</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+        <v>-0.42818266949615102</v>
+      </c>
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>-0.90557836200662389</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="P6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>$B$17*E7+$C$17</f>
+        <v>0.17003646719822518</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F7-P6</f>
+        <v>0.59252198328137751</v>
+      </c>
+      <c r="R6" s="8">
+        <f>P6+$C$19</f>
+        <v>0.97396681653305717</v>
+      </c>
+      <c r="S6" s="8">
+        <f>P6-$C$19</f>
+        <v>-0.6338938821366068</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
+      <c r="A7" s="19">
+        <v>45</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
+        <v>26</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+        <v>0.85090352453411844</v>
+      </c>
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>0.76255845047960269</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="P7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>$B$17*E8+$C$17</f>
+        <v>-0.32759228253669415</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F8-P7</f>
+        <v>0.87901896377838473</v>
+      </c>
+      <c r="R7" s="8">
+        <f>P7+$C$19</f>
+        <v>0.47633806679813784</v>
+      </c>
+      <c r="S7" s="8">
+        <f>P7-$C$19</f>
+        <v>-1.1315226318715261</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5">
+      <c r="A8" s="19">
+        <v>55</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>32</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+        <v>-0.99975517335861985</v>
+      </c>
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>0.55142668124169059</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="P8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>$B$17*E9+$C$17</f>
+        <v>0.16356291534722392</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F9-P8</f>
+        <v>0.83634894476004329</v>
+      </c>
+      <c r="R8" s="8">
+        <f>P8+$C$19</f>
+        <v>0.96749326468205588</v>
+      </c>
+      <c r="S8" s="8">
+        <f>P8-$C$19</f>
+        <v>-0.64036743398760809</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5">
+      <c r="A9" s="19">
+        <v>65</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+        <v>0.82682867949010341</v>
+      </c>
+      <c r="F9" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>0.99991186010726718</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="P9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>$B$17*E10+$C$17</f>
+        <v>-0.1630370207224702</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>F10-P9</f>
+        <v>-0.26514564877368085</v>
+      </c>
+      <c r="R9" s="8">
+        <f>P9+$C$19</f>
+        <v>0.64089332861236181</v>
+      </c>
+      <c r="S9" s="8">
+        <f>P9-$C$19</f>
+        <v>-0.96696737005730216</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="19">
+        <v>75</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19">
+        <v>35</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.38778163540943045</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.42818266949615102</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="P10">
+        <f t="shared" ref="P10:P11" si="2">$B$17*E11+$C$17</f>
+        <v>-0.10611080309784854</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q11" si="3">F11-P10</f>
+        <v>-0.53742733025915101</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" ref="R10:R11" si="4">P10+$C$19</f>
+        <v>0.69781954623698339</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" ref="S10:S11" si="5">P10-$C$19</f>
+        <v>-0.91004115243268058</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>85</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20">
+        <v>37</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.17607561994858709</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.6435381333569995</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0.18162390087262609</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>0.78217148541146164</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="4"/>
+        <v>0.98555425020745813</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.62230644846220584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>90</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19">
+        <v>39</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89399666360055785</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.96379538628408779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B14" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="array" ref="B14:C16">LINEST(F2:F9,E2:E9,1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="array" ref="B17:C19">LINEST(F3:F10,E3:E10,1,1)</f>
+        <v>0.26889277331446731</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-5.8765341336808809E-2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.45201348489892473</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.28504186543399035</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.5695037395284828E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.80393034933483198</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="e">
-        <f>B18/B14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="1"/>
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
+        <f>B21/B17</f>
+        <v>3.7189545396614672</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O25">
@@ -3780,8 +6755,527 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:D13"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F272FC-94AB-4B2A-A458-025F0DDF11B0}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="P1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="P2">
+        <f>$B$17*E3+$C$17</f>
+        <v>-5.8765341336808809E-2</v>
+      </c>
+      <c r="Q2">
+        <f>F3-P2</f>
+        <v>-0.47780757666362611</v>
+      </c>
+      <c r="R2" s="8">
+        <f>P2+$C$19</f>
+        <v>0.74516500799802321</v>
+      </c>
+      <c r="S2" s="8">
+        <f>P2-$C$19</f>
+        <v>-0.86269569067164076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19">
+        <f>SIN(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <f>SIN(C3)</f>
+        <v>-0.53657291800043494</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="P3">
+        <f>$B$17*E4+$C$17</f>
+        <v>0.11609235945571336</v>
+      </c>
+      <c r="Q3">
+        <f>F4-P3</f>
+        <v>-1.0774898513352702</v>
+      </c>
+      <c r="R3" s="8">
+        <f>P3+$C$19</f>
+        <v>0.92002270879054537</v>
+      </c>
+      <c r="S3" s="8">
+        <f>P3-$C$19</f>
+        <v>-0.68783798987911859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <f t="shared" ref="E4:E12" si="0">SIN(A4)</f>
+        <v>0.65028784015711683</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" ref="F4:F12" si="1">SIN(C4)</f>
+        <v>-0.96139749187955681</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="P4">
+        <f>$B$17*E5+$C$17</f>
+        <v>-9.4353770473622312E-2</v>
+      </c>
+      <c r="Q4">
+        <f>F5-P4</f>
+        <v>0.24423098013657465</v>
+      </c>
+      <c r="R4" s="8">
+        <f>P4+$C$19</f>
+        <v>0.70957657886120962</v>
+      </c>
+      <c r="S4" s="8">
+        <f>P4-$C$19</f>
+        <v>-0.89828411980845435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>25</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19">
+        <v>19</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.13235175009777303</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="1"/>
+        <v>0.14987720966295234</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="P5">
+        <f>$B$17*E6+$C$17</f>
+        <v>-0.17390056682282082</v>
+      </c>
+      <c r="Q5">
+        <f>F6-P5</f>
+        <v>-0.73167779518380305</v>
+      </c>
+      <c r="R5" s="8">
+        <f>P5+$C$19</f>
+        <v>0.63002978251201114</v>
+      </c>
+      <c r="S5" s="8">
+        <f>P5-$C$19</f>
+        <v>-0.97783091615765283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>35</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19">
+        <v>24</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.42818266949615102</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.90557836200662389</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="P6">
+        <f>$B$17*E7+$C$17</f>
+        <v>0.17003646719822518</v>
+      </c>
+      <c r="Q6">
+        <f>F7-P6</f>
+        <v>0.59252198328137751</v>
+      </c>
+      <c r="R6" s="8">
+        <f>P6+$C$19</f>
+        <v>0.97396681653305717</v>
+      </c>
+      <c r="S6" s="8">
+        <f>P6-$C$19</f>
+        <v>-0.6338938821366068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>45</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
+        <v>26</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85090352453411844</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
+        <v>0.76255845047960269</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="P7">
+        <f>$B$17*E8+$C$17</f>
+        <v>-0.32759228253669415</v>
+      </c>
+      <c r="Q7">
+        <f>F8-P7</f>
+        <v>0.87901896377838473</v>
+      </c>
+      <c r="R7" s="8">
+        <f>P7+$C$19</f>
+        <v>0.47633806679813784</v>
+      </c>
+      <c r="S7" s="8">
+        <f>P7-$C$19</f>
+        <v>-1.1315226318715261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>55</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19">
+        <v>32</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.99975517335861985</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>0.55142668124169059</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="P8">
+        <f>$B$17*E9+$C$17</f>
+        <v>0.16356291534722392</v>
+      </c>
+      <c r="Q8">
+        <f>F9-P8</f>
+        <v>0.83634894476004329</v>
+      </c>
+      <c r="R8" s="8">
+        <f>P8+$C$19</f>
+        <v>0.96749326468205588</v>
+      </c>
+      <c r="S8" s="8">
+        <f>P8-$C$19</f>
+        <v>-0.64036743398760809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>65</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.82682867949010341</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>0.99991186010726718</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="P9">
+        <f>$B$17*E10+$C$17</f>
+        <v>-0.1630370207224702</v>
+      </c>
+      <c r="Q9">
+        <f>F10-P9</f>
+        <v>-0.26514564877368085</v>
+      </c>
+      <c r="R9" s="8">
+        <f>P9+$C$19</f>
+        <v>0.64089332861236181</v>
+      </c>
+      <c r="S9" s="8">
+        <f>P9-$C$19</f>
+        <v>-0.96696737005730216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>75</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19">
+        <v>35</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.38778163540943045</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.42818266949615102</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="P10">
+        <f t="shared" ref="P10:P11" si="2">$B$17*E11+$C$17</f>
+        <v>-0.10611080309784854</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q11" si="3">F11-P10</f>
+        <v>-0.53742733025915101</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" ref="R10:R11" si="4">P10+$C$19</f>
+        <v>0.69781954623698339</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" ref="S10:S11" si="5">P10-$C$19</f>
+        <v>-0.91004115243268058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>85</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20">
+        <v>37</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>-0.17607561994858709</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.6435381333569995</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0.18162390087262609</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>0.78217148541146164</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="4"/>
+        <v>0.98555425020745813</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.62230644846220584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>90</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19">
+        <v>39</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89399666360055785</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.96379538628408779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="array" ref="B17:C19">LINEST(F3:F10,E3:E10,1,1)</f>
+        <v>0.26889277331446731</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-5.8765341336808809E-2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.45201348489892473</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.28504186543399035</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.5695037395284828E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.80393034933483198</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
+        <f>B21/B17</f>
+        <v>3.7189545396614672</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3791,6 +7285,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A6AC9AE00E36404AA0D09428E6D89785" ma:contentTypeVersion="4" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="90a733a5ab80369601faf008bc080d09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5de1c3e-7813-4da7-ba52-5366b85aaf02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b20cf44b89237f95aaad323f9088c9f4" ns3:_="">
     <xsd:import namespace="c5de1c3e-7813-4da7-ba52-5366b85aaf02"/>
@@ -3936,22 +7445,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE7295F-EC5E-43B5-90FB-59A1A459F71F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c5de1c3e-7813-4da7-ba52-5366b85aaf02"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31035FE3-FFA6-4B27-8A73-A608733C4984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EA959BF-B3E4-420A-A6BB-208B3C612720}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3967,28 +7485,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31035FE3-FFA6-4B27-8A73-A608733C4984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE7295F-EC5E-43B5-90FB-59A1A459F71F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="c5de1c3e-7813-4da7-ba52-5366b85aaf02"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/t1a - snell.xlsx
+++ b/t1a - snell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA559F2-FF37-45AF-B330-BF7108A2FD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546C4B6B-7F4E-4B42-A45F-EE85F4ACA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{FB603AAF-03AE-4A56-BE8E-5B256B97D4E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{FB603AAF-03AE-4A56-BE8E-5B256B97D4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-Branco-Plana" sheetId="2" r:id="rId1"/>
@@ -448,7 +448,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -648,7 +648,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,7 +657,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,23 +679,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,7 +700,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -778,7 +778,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -920,7 +920,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1696,7 +1696,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1734,7 +1734,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
@@ -1830,7 +1830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1868,7 +1868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139094816"/>
@@ -1928,7 +1928,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1965,7 +1965,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1979,7 +1979,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2112,7 +2112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2367,7 +2367,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2405,7 +2405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937298319"/>
@@ -2484,7 +2484,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2522,7 +2522,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
@@ -2578,7 +2578,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2615,7 +2615,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2629,7 +2629,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2707,7 +2707,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2800,7 +2800,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3450,7 +3450,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3488,7 +3488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
@@ -3584,7 +3584,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3622,7 +3622,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139094816"/>
@@ -3678,7 +3678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3715,7 +3715,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3729,7 +3729,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3862,7 +3862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4087,7 +4087,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4125,7 +4125,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937298319"/>
@@ -4204,7 +4204,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4242,7 +4242,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
@@ -4298,7 +4298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4335,7 +4335,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4349,7 +4349,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4427,7 +4427,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4569,7 +4569,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4586,13 +4586,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="16"/>
                   <c:pt idx="0">
-                    <c:v>8.7146866945632291E-3</c:v>
+                    <c:v>8.7103693055957387E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6705501183531822E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.5940688946150676E-3</c:v>
+                    <c:v>8.606965555918767E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>8.4855283291473127E-3</c:v>
@@ -4601,37 +4601,31 @@
                     <c:v>8.3672806532745243E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.2003650947043028E-3</c:v>
+                    <c:v>8.2260988427336566E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0329202366664892E-3</c:v>
+                    <c:v>8.0477216603701673E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.8434577026214106E-3</c:v>
+                    <c:v>7.8928601123914727E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.6691260694106223E-3</c:v>
+                    <c:v>7.7229740565879987E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.4406891013622497E-3</c:v>
+                    <c:v>7.5191328904495522E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.2770265903858364E-3</c:v>
+                    <c:v>7.3187813751092326E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.0600051282156389E-3</c:v>
+                    <c:v>7.1484501236426601E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>6.8766910957795396E-3</c:v>
+                    <c:v>2.0630073287338617E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6.6849988745162929E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>6.5860835356158255E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>6.4851620118695852E-3</c:v>
+                    <c:v>1.9907381627290919E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4643,13 +4637,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="16"/>
                   <c:pt idx="0">
-                    <c:v>8.7146866945632291E-3</c:v>
+                    <c:v>8.7103693055957387E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.6705501183531822E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.5940688946150676E-3</c:v>
+                    <c:v>8.606965555918767E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>8.4855283291473127E-3</c:v>
@@ -4658,37 +4652,31 @@
                     <c:v>8.3672806532745243E-3</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.2003650947043028E-3</c:v>
+                    <c:v>8.2260988427336566E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0329202366664892E-3</c:v>
+                    <c:v>8.0477216603701673E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.8434577026214106E-3</c:v>
+                    <c:v>7.8928601123914727E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.6691260694106223E-3</c:v>
+                    <c:v>7.7229740565879987E-3</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.4406891013622497E-3</c:v>
+                    <c:v>7.5191328904495522E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.2770265903858364E-3</c:v>
+                    <c:v>7.3187813751092326E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.0600051282156389E-3</c:v>
+                    <c:v>7.1484501236426601E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>6.8766910957795396E-3</c:v>
+                    <c:v>2.0630073287338617E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>6.6849988745162929E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>6.5860835356158255E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>6.4851620118695852E-3</c:v>
+                    <c:v>1.9907381627290919E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4755,15 +4743,9 @@
                     <c:v>4.3633231299858247E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.6880400732151935E-3</c:v>
+                    <c:v>2.9846888045879146E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.9846888045879146E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2.2586222519533458E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
                     <c:v>1.5153662201880106E-3</c:v>
                   </c:pt>
                 </c:numCache>
@@ -4812,15 +4794,9 @@
                     <c:v>4.3633231299858247E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.6880400732151935E-3</c:v>
+                    <c:v>2.9846888045879146E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.9846888045879146E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2.2586222519533458E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
                     <c:v>1.5153662201880106E-3</c:v>
                   </c:pt>
                 </c:numCache>
@@ -4883,15 +4859,9 @@
                   <c:v>0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90630778703664994</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93969262078590832</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.96592582628906831</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.98480775301220802</c:v>
                 </c:pt>
               </c:numCache>
@@ -4904,13 +4874,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.2335956242943828E-2</c:v>
+                  <c:v>6.1048539534856873E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.11320321376790672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17364817766693033</c:v>
+                  <c:v>0.16504760586067763</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.23344536385590539</c:v>
@@ -4919,37 +4889,31 @@
                   <c:v>0.28401534470392265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34202014332566871</c:v>
+                  <c:v>0.3338068592337709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39073112848927372</c:v>
+                  <c:v>0.38671096163682062</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4383711467890774</c:v>
+                  <c:v>0.42656873990145833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47715876025960841</c:v>
+                  <c:v>0.46561452032511141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5224985647159488</c:v>
+                  <c:v>0.50753836296070409</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55193698531205815</c:v>
+                  <c:v>0.54463903501502708</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.58778525229247314</c:v>
+                  <c:v>0.57357643635104605</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.61566147532565818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64278760968653925</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.65605902899050716</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.66913060635885824</c:v>
+                  <c:v>0.64944804833018366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5025,15 +4989,9 @@
                   <c:v>0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90630778703664994</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93969262078590832</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.96592582628906831</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.98480775301220802</c:v>
                 </c:pt>
               </c:numCache>
@@ -5046,52 +5004,52 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.828668727466451E-2</c:v>
+                  <c:v>6.4547593035334389E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11750559039560327</c:v>
+                  <c:v>0.12145869200021733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1758196539562154</c:v>
+                  <c:v>0.17750021366712293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23278507272181037</c:v>
+                  <c:v>0.23224564821737004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28796830545892177</c:v>
+                  <c:v>0.28527834983783412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34094937444587309</c:v>
+                  <c:v>0.33619470764716258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39132506175682968</c:v>
+                  <c:v>0.38460721741828918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43871197799368339</c:v>
+                  <c:v>0.43014743071958295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48274948011086949</c:v>
+                  <c:v>0.47246875902988844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52310241612670538</c:v>
+                  <c:v>0.51124911148644736</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5594636758323418</c:v>
+                  <c:v>0.54619334619084858</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59155652808588954</c:v>
+                  <c:v>0.57703551641708539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61913672690350541</c:v>
+                  <c:v>0.62550775888720678</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64199437031880791</c:v>
+                  <c:v>0.65519303433749498</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6599554978635841</c:v>
+                  <c:v>7.2000445994579356E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67288341451199296</c:v>
+                  <c:v>7.2000445994579356E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5167,15 +5125,9 @@
                   <c:v>0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90630778703664994</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93969262078590832</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.96592582628906831</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.98480775301220802</c:v>
                 </c:pt>
               </c:numCache>
@@ -5188,52 +5140,52 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>5.2861052777912414E-2</c:v>
+                  <c:v>5.6075754165500806E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11207995589885117</c:v>
+                  <c:v>0.11298685313038376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17039401945946331</c:v>
+                  <c:v>0.16902837479728933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22735943822505827</c:v>
+                  <c:v>0.22377380934753643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28254267096216962</c:v>
+                  <c:v>0.27680651096800052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33552373994912094</c:v>
+                  <c:v>0.32772286877732898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38589942726007753</c:v>
+                  <c:v>0.37613537854845558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43328634349693124</c:v>
+                  <c:v>0.42167559184974934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47732384561411734</c:v>
+                  <c:v>0.46399692016005484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51767678162995334</c:v>
+                  <c:v>0.50277727261661387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55403804133558976</c:v>
+                  <c:v>0.53772150732101509</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5861308935891375</c:v>
+                  <c:v>0.5685636775472519</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61371109240675337</c:v>
+                  <c:v>0.61703592001737328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.63656873582205586</c:v>
+                  <c:v>0.64672119546766149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65452986336683205</c:v>
+                  <c:v>-1.2717942703756504E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66745778001524092</c:v>
+                  <c:v>-1.2717942703756504E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5345,7 +5297,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5383,7 +5335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
@@ -5479,7 +5431,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5517,7 +5469,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139094816"/>
@@ -5577,7 +5529,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5614,7 +5566,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5628,7 +5580,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5761,7 +5713,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5850,15 +5802,9 @@
                   <c:v>0.8660254037844386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90630778703664994</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93969262078590832</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.96592582628906831</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.98480775301220802</c:v>
                 </c:pt>
               </c:numCache>
@@ -5871,52 +5817,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-3.2379137833446342E-3</c:v>
+                  <c:v>7.3686593443927223E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.589559379320496E-3</c:v>
+                  <c:v>-4.019558797393824E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4134095909097457E-4</c:v>
+                  <c:v>-8.2166883715285022E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3731083824710684E-3</c:v>
+                  <c:v>5.4356350734521552E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2401435066230482E-3</c:v>
+                  <c:v>2.9729143010053249E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7835861281717009E-3</c:v>
+                  <c:v>1.8480710215251217E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1188839808201076E-3</c:v>
+                  <c:v>6.3396636534482353E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3719860437700913E-3</c:v>
+                  <c:v>6.5722861679218259E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.8779026028850074E-3</c:v>
+                  <c:v>-2.6183192698602253E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1089658376194365E-3</c:v>
+                  <c:v>5.2517090917347797E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.8138732719076316E-3</c:v>
+                  <c:v>2.6816082590952472E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0584585450403861E-3</c:v>
+                  <c:v>7.7683936887740224E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.624343294712066E-4</c:v>
+                  <c:v>-5.6103641266318505E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.506056616107367E-3</c:v>
+                  <c:v>-1.5090665723945795E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1836516247009099E-3</c:v>
+                  <c:v>-2.9641251645411426E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.039990904758703E-3</c:v>
+                  <c:v>-2.9641251645411426E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6028,7 +5974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6066,7 +6012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937298319"/>
@@ -6145,7 +6091,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6183,7 +6129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
@@ -6239,7 +6185,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6276,7 +6222,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6290,7 +6236,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6368,7 +6314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6461,7 +6407,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6781,7 +6727,7 @@
                   <c:v>0.24192189559966773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3090169943749474</c:v>
+                  <c:v>0.31730465640509214</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.42261826174069944</c:v>
@@ -6875,31 +6821,31 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.13037179464929521</c:v>
+                  <c:v>0.13152309647619606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2315987383410161</c:v>
+                  <c:v>0.23245827387495194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33183693261870162</c:v>
+                  <c:v>0.33240755173086961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43059802707573885</c:v>
+                  <c:v>0.43088398720910126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5274008675873636</c:v>
+                  <c:v>0.52740781301481354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6217738404451908</c:v>
+                  <c:v>0.62150877477122224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71325717001179523</c:v>
+                  <c:v>0.71272842205164566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80140515870140028</c:v>
+                  <c:v>0.80062234190390047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88578835837371539</c:v>
+                  <c:v>0.88476232398553245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6975,31 +6921,31 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.10783913310169467</c:v>
+                  <c:v>0.11077176044329075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20906607679341557</c:v>
+                  <c:v>0.21170693784204664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30930427107110103</c:v>
+                  <c:v>0.31165621569796426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40806536552813827</c:v>
+                  <c:v>0.41013265117619591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50486820603976312</c:v>
+                  <c:v>0.5066564769819083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59924117889759032</c:v>
+                  <c:v>0.600757438738317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69072450846419475</c:v>
+                  <c:v>0.69197708601874042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7788724971537998</c:v>
+                  <c:v>0.77987100587099523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86325569682611492</c:v>
+                  <c:v>0.86401098795262721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7111,7 +7057,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7149,7 +7095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
@@ -7245,7 +7191,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7283,7 +7229,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139094816"/>
@@ -7339,7 +7285,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7376,7 +7322,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7390,7 +7336,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7523,7 +7469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7612,31 +7558,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>-1.4577000607841478E-2</c:v>
+                  <c:v>-1.6618965192089941E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1589488032451892E-2</c:v>
+                  <c:v>1.9839289741168442E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.155360746995393E-2</c:v>
+                  <c:v>-4.7272273093247885E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.28656543876088E-3</c:v>
+                  <c:v>2.1099425480508582E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3640279023854385E-3</c:v>
+                  <c:v>5.4664197175878781E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7460806626699021E-3</c:v>
+                  <c:v>-2.3716777460489613E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.081574938144092E-3</c:v>
+                  <c:v>-1.4434897353421405E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8845139650260911E-3</c:v>
+                  <c:v>1.7766680051782835E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.1663316600154543E-3</c:v>
+                  <c:v>-4.0309600291801306E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7748,7 +7694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7786,7 +7732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937298319"/>
@@ -7865,7 +7811,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7903,7 +7849,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
@@ -7959,7 +7905,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7996,7 +7942,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8010,7 +7956,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8143,7 +8089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8410,7 +8356,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8448,7 +8394,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937298319"/>
@@ -8527,7 +8473,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8565,7 +8511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
@@ -8621,7 +8567,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8658,7 +8604,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8672,7 +8618,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8750,7 +8696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8892,7 +8838,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9668,7 +9614,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9706,7 +9652,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
@@ -9802,7 +9748,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9840,7 +9786,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139094816"/>
@@ -9900,7 +9846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9937,7 +9883,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9951,7 +9897,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10084,7 +10030,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10351,7 +10297,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10389,7 +10335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937298319"/>
@@ -10468,7 +10414,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10506,7 +10452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
@@ -10562,7 +10508,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10599,7 +10545,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10613,7 +10559,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10691,7 +10637,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10784,7 +10730,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11434,7 +11380,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11472,7 +11418,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
@@ -11568,7 +11514,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11606,7 +11552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139094816"/>
@@ -11662,7 +11608,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11699,7 +11645,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11713,7 +11659,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11846,7 +11792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12071,7 +12017,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12109,7 +12055,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937298319"/>
@@ -12188,7 +12134,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12226,7 +12172,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
@@ -12282,7 +12228,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12319,7 +12265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12333,7 +12279,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12411,7 +12357,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12504,7 +12450,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -13154,7 +13100,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13192,7 +13138,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
@@ -13288,7 +13234,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13326,7 +13272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139094816"/>
@@ -13382,7 +13328,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13419,7 +13365,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13433,7 +13379,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13566,7 +13512,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13791,7 +13737,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13829,7 +13775,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937298319"/>
@@ -13908,7 +13854,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13946,7 +13892,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937293743"/>
@@ -14002,7 +13948,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14039,7 +13985,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14053,7 +13999,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14131,7 +14077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14273,7 +14219,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -14989,7 +14935,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15027,7 +14973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139095232"/>
@@ -15123,7 +15069,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15161,7 +15107,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1139094816"/>
@@ -15221,7 +15167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -15258,7 +15204,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24814,7 +24760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -25119,37 +25065,37 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -25174,7 +25120,7 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <f t="array" ref="I2:J4">LINEST(F3:F18,D3:D18,1,1)</f>
         <v>0.68467147648474458</v>
       </c>
@@ -25185,7 +25131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -25214,7 +25160,7 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="17">
         <v>2.3676133651069271E-3</v>
       </c>
       <c r="J3" s="15">
@@ -25224,7 +25170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>10</v>
       </c>
@@ -25263,7 +25209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>15</v>
       </c>
@@ -25290,7 +25236,7 @@
         <v>8.5940688946150676E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -25318,7 +25264,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>25</v>
       </c>
@@ -25346,7 +25292,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>30</v>
       </c>
@@ -25380,7 +25326,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>35</v>
       </c>
@@ -25414,7 +25360,7 @@
         <v>1.4605544912345729</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>40</v>
       </c>
@@ -25447,7 +25393,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45</v>
       </c>
@@ -25481,7 +25427,7 @@
         <v>1.9762086419749709E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>50</v>
       </c>
@@ -25515,7 +25461,7 @@
         <v>5.0506388139143878E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>55</v>
       </c>
@@ -25549,7 +25495,7 @@
         <v>3.4580283339139231E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>60</v>
       </c>
@@ -25576,7 +25522,7 @@
         <v>7.0600051282156389E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>65</v>
       </c>
@@ -25603,7 +25549,7 @@
         <v>6.8766910957795396E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>70</v>
       </c>
@@ -25630,7 +25576,7 @@
         <v>6.6849988745162929E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>75</v>
       </c>
@@ -25657,7 +25603,7 @@
         <v>6.5860835356158255E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>80</v>
       </c>
@@ -25684,7 +25630,7 @@
         <v>6.4851620118695852E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -25698,291 +25644,291 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f>$I$2*D3+$J$2</f>
+        <f t="shared" ref="E24:E39" si="4">$I$2*D3+$J$2</f>
         <v>5.5573870026288462E-2</v>
       </c>
       <c r="F24">
-        <f>F3-E24</f>
+        <f t="shared" ref="F24:F39" si="5">F3-E24</f>
         <v>-3.2379137833446342E-3</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+$J$4</f>
+        <f t="shared" ref="G24:G39" si="6">E24+$J$4</f>
         <v>5.828668727466451E-2</v>
       </c>
       <c r="H24" s="2">
-        <f>E24-$J$4</f>
+        <f t="shared" ref="H24:H39" si="7">E24-$J$4</f>
         <v>5.2861052777912414E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f>$I$2*D4+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.11479277314722722</v>
       </c>
       <c r="F25">
-        <f>F4-E25</f>
+        <f t="shared" si="5"/>
         <v>-1.589559379320496E-3</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.11750559039560327</v>
       </c>
       <c r="H25" s="2">
-        <f>E25-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.11207995589885117</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f>$I$2*D5+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.17310683670783936</v>
       </c>
       <c r="F26">
-        <f>F5-E26</f>
+        <f t="shared" si="5"/>
         <v>5.4134095909097457E-4</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.1758196539562154</v>
       </c>
       <c r="H26" s="2">
-        <f>E26-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.17039401945946331</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>$I$2*D6+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.23007225547343432</v>
       </c>
       <c r="F27">
-        <f>F6-E27</f>
+        <f t="shared" si="5"/>
         <v>3.3731083824710684E-3</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.23278507272181037</v>
       </c>
       <c r="H27" s="2">
-        <f>E27-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.22735943822505827</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>$I$2*D7+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.28525548821054569</v>
       </c>
       <c r="F28">
-        <f>F7-E28</f>
+        <f t="shared" si="5"/>
         <v>-1.2401435066230482E-3</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.28796830545892177</v>
       </c>
       <c r="H28" s="2">
-        <f>E28-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.28254267096216962</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f>$I$2*D8+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.33823655719749701</v>
       </c>
       <c r="F29">
-        <f>F8-E29</f>
+        <f t="shared" si="5"/>
         <v>3.7835861281717009E-3</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.34094937444587309</v>
       </c>
       <c r="H29" s="2">
-        <f>E29-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.33552373994912094</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f>$I$2*D9+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.38861224450845361</v>
       </c>
       <c r="F30">
-        <f>F9-E30</f>
+        <f t="shared" si="5"/>
         <v>2.1188839808201076E-3</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.39132506175682968</v>
       </c>
       <c r="H30" s="2">
-        <f>E30-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.38589942726007753</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f>$I$2*D10+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.43599916074530731</v>
       </c>
       <c r="F31">
-        <f>F10-E31</f>
+        <f t="shared" si="5"/>
         <v>2.3719860437700913E-3</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.43871197799368339</v>
       </c>
       <c r="H31" s="2">
-        <f>E31-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.43328634349693124</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f>$I$2*D11+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.48003666286249341</v>
       </c>
       <c r="F32">
-        <f>F11-E32</f>
+        <f t="shared" si="5"/>
         <v>-2.8779026028850074E-3</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.48274948011086949</v>
       </c>
       <c r="H32" s="2">
-        <f>E32-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.47732384561411734</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33">
-        <f>$I$2*D12+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.52038959887832936</v>
       </c>
       <c r="F33">
-        <f>F12-E33</f>
+        <f t="shared" si="5"/>
         <v>2.1089658376194365E-3</v>
       </c>
       <c r="G33" s="2">
-        <f>E33+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.52310241612670538</v>
       </c>
       <c r="H33" s="2">
-        <f>E33-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.51767678162995334</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34">
-        <f>$I$2*D13+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.55675085858396578</v>
       </c>
       <c r="F34">
-        <f>F13-E34</f>
+        <f t="shared" si="5"/>
         <v>-4.8138732719076316E-3</v>
       </c>
       <c r="G34" s="2">
-        <f>E34+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.5594636758323418</v>
       </c>
       <c r="H34" s="2">
-        <f>E34-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.55403804133558976</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35">
-        <f>$I$2*D14+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.58884371083751352</v>
       </c>
       <c r="F35">
-        <f>F14-E35</f>
+        <f t="shared" si="5"/>
         <v>-1.0584585450403861E-3</v>
       </c>
       <c r="G35" s="2">
-        <f>E35+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.59155652808588954</v>
       </c>
       <c r="H35" s="2">
-        <f>E35-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.5861308935891375</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36">
-        <f>$I$2*D15+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.61642390965512939</v>
       </c>
       <c r="F36">
-        <f>F15-E36</f>
+        <f t="shared" si="5"/>
         <v>-7.624343294712066E-4</v>
       </c>
       <c r="G36" s="2">
-        <f>E36+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.61913672690350541</v>
       </c>
       <c r="H36" s="2">
-        <f>E36-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.61371109240675337</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37">
-        <f>$I$2*D16+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.63928155307043188</v>
       </c>
       <c r="F37">
-        <f>F16-E37</f>
+        <f t="shared" si="5"/>
         <v>3.506056616107367E-3</v>
       </c>
       <c r="G37" s="2">
-        <f>E37+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.64199437031880791</v>
       </c>
       <c r="H37" s="2">
-        <f>E37-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.63656873582205586</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38">
-        <f>$I$2*D17+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.65724268061520807</v>
       </c>
       <c r="F38">
-        <f>F17-E38</f>
+        <f t="shared" si="5"/>
         <v>-1.1836516247009099E-3</v>
       </c>
       <c r="G38" s="2">
-        <f>E38+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.6599554978635841</v>
       </c>
       <c r="H38" s="2">
-        <f>E38-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.65452986336683205</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39">
-        <f>$I$2*D18+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.67017059726361694</v>
       </c>
       <c r="F39">
-        <f>F18-E39</f>
+        <f t="shared" si="5"/>
         <v>-1.039990904758703E-3</v>
       </c>
       <c r="G39" s="2">
-        <f>E39+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.67288341451199296</v>
       </c>
       <c r="H39" s="2">
-        <f>E39-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.66745778001524092</v>
       </c>
     </row>
@@ -26004,41 +25950,41 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -26063,7 +26009,7 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <f t="array" ref="I2:J4">LINEST(F3:F18,D3:D18,1,1)</f>
         <v>0.68888767050361788</v>
       </c>
@@ -26074,7 +26020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -26103,7 +26049,7 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="17">
         <v>3.9634092244172844E-3</v>
       </c>
       <c r="J3" s="15">
@@ -26113,7 +26059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>10</v>
       </c>
@@ -26152,7 +26098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>15</v>
       </c>
@@ -26179,7 +26125,7 @@
         <v>8.606965555918767E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -26207,7 +26153,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>25</v>
       </c>
@@ -26235,7 +26181,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>30</v>
       </c>
@@ -26269,7 +26215,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>35</v>
       </c>
@@ -26303,7 +26249,7 @@
         <v>1.4516154705874478</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>40</v>
       </c>
@@ -26336,7 +26282,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45</v>
       </c>
@@ -26370,7 +26316,7 @@
         <v>2.5761429135941084E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>50</v>
       </c>
@@ -26404,7 +26350,7 @@
         <v>8.3516462738070056E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>55</v>
       </c>
@@ -26438,7 +26384,7 @@
         <v>5.753346146433129E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>60</v>
       </c>
@@ -26465,7 +26411,7 @@
         <v>7.1044981434490529E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>65</v>
       </c>
@@ -26492,7 +26438,7 @@
         <v>6.9233139598885215E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>70</v>
       </c>
@@ -26519,7 +26465,7 @@
         <v>6.7336947847226273E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>75</v>
       </c>
@@ -26546,7 +26492,7 @@
         <v>6.6357938757636396E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>80</v>
       </c>
@@ -26573,7 +26519,7 @@
         <v>6.4339585138359261E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -26587,291 +26533,291 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f>$I$2*D3+$J$2</f>
+        <f t="shared" ref="E24:E39" si="4">$I$2*D3+$J$2</f>
         <v>4.5699670392584955E-2</v>
       </c>
       <c r="F24">
-        <f>F3-E24</f>
+        <f t="shared" ref="F24:F39" si="5">F3-E24</f>
         <v>6.6362858503588723E-3</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+$J$4</f>
+        <f t="shared" ref="G24:G39" si="6">E24+$J$4</f>
         <v>5.0240954482644304E-2</v>
       </c>
       <c r="H24" s="2">
-        <f>E24-$J$4</f>
+        <f t="shared" ref="H24:H39" si="7">E24-$J$4</f>
         <v>4.1158386302525607E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f>$I$2*D4+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.10528324240030813</v>
       </c>
       <c r="F25">
-        <f>F4-E25</f>
+        <f t="shared" si="5"/>
         <v>-7.54779132654676E-4</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.10982452649036747</v>
       </c>
       <c r="H25" s="2">
-        <f>E25-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.10074195831024879</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f>$I$2*D5+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.16395640286278446</v>
       </c>
       <c r="F26">
-        <f>F5-E26</f>
+        <f t="shared" si="5"/>
         <v>1.0912029978931703E-3</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.16849768695284381</v>
       </c>
       <c r="H26" s="2">
-        <f>E26-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.1594151187727251</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>$I$2*D6+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.22127261360107156</v>
       </c>
       <c r="F27">
-        <f>F6-E27</f>
+        <f t="shared" si="5"/>
         <v>-4.8329996629686844E-3</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.22581389769113092</v>
       </c>
       <c r="H27" s="2">
-        <f>E27-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.21673132951101221</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>$I$2*D7+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.27679566364297681</v>
       </c>
       <c r="F28">
-        <f>F7-E28</f>
+        <f t="shared" si="5"/>
         <v>-1.1583078259776447E-3</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.28133694773303614</v>
       </c>
       <c r="H28" s="2">
-        <f>E28-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.27225437955291748</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f>$I$2*D8+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.33010298905194702</v>
       </c>
       <c r="F29">
-        <f>F8-E29</f>
+        <f t="shared" si="5"/>
         <v>3.7038701818238873E-3</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.33464427314200634</v>
       </c>
       <c r="H29" s="2">
-        <f>E29-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.32556170496188769</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f>$I$2*D9+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.38078888889377688</v>
       </c>
       <c r="F30">
-        <f>F9-E30</f>
+        <f t="shared" si="5"/>
         <v>-2.1402715413438855E-3</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.38533017298383621</v>
       </c>
       <c r="H30" s="2">
-        <f>E30-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.37624760480371755</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f>$I$2*D10+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.42846761286568691</v>
       </c>
       <c r="F31">
-        <f>F10-E31</f>
+        <f t="shared" si="5"/>
         <v>-1.8988729642285818E-3</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.43300889695574624</v>
       </c>
       <c r="H31" s="2">
-        <f>E31-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.42392632877562758</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f>$I$2*D11+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.47277629708905028</v>
       </c>
       <c r="F32">
-        <f>F11-E32</f>
+        <f t="shared" si="5"/>
         <v>-3.3047343031594734E-3</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.47731758117910961</v>
       </c>
       <c r="H32" s="2">
-        <f>E32-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.46823501299899095</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33">
-        <f>$I$2*D12+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.51337772572261209</v>
       </c>
       <c r="F33">
-        <f>F12-E33</f>
+        <f t="shared" si="5"/>
         <v>-5.8393627619079957E-3</v>
       </c>
       <c r="G33" s="2">
-        <f>E33+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.51791900981267147</v>
       </c>
       <c r="H33" s="2">
-        <f>E33-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.50883644163255271</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34">
-        <f>$I$2*D13+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.54996289737865811</v>
       </c>
       <c r="F34">
-        <f>F13-E34</f>
+        <f t="shared" si="5"/>
         <v>-1.6696678587443392E-3</v>
       </c>
       <c r="G34" s="2">
-        <f>E34+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.55450418146871749</v>
       </c>
       <c r="H34" s="2">
-        <f>E34-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.54542161328859873</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35">
-        <f>$I$2*D14+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.5822533768101551</v>
       </c>
       <c r="F35">
-        <f>F14-E35</f>
+        <f t="shared" si="5"/>
         <v>-1.5504210992153267E-3</v>
       </c>
       <c r="G35" s="2">
-        <f>E35+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.58679466090021448</v>
       </c>
       <c r="H35" s="2">
-        <f>E35-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.57771209272009572</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36">
-        <f>$I$2*D15+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.61000341397110491</v>
       </c>
       <c r="F36">
-        <f>F15-E36</f>
+        <f t="shared" si="5"/>
         <v>-1.2419849623842572E-3</v>
       </c>
       <c r="G36" s="2">
-        <f>E36+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.6145446980611643</v>
       </c>
       <c r="H36" s="2">
-        <f>E36-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.60546212988104553</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37">
-        <f>$I$2*D16+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.63300181432278213</v>
       </c>
       <c r="F37">
-        <f>F16-E37</f>
+        <f t="shared" si="5"/>
         <v>3.0764059549818201E-3</v>
       </c>
       <c r="G37" s="2">
-        <f>E37+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.63754309841284151</v>
       </c>
       <c r="H37" s="2">
-        <f>E37-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.62846053023272275</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38">
-        <f>$I$2*D17+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.65107354615169666</v>
       </c>
       <c r="F38">
-        <f>F17-E38</f>
+        <f t="shared" si="5"/>
         <v>-1.625497821513E-3</v>
       </c>
       <c r="G38" s="2">
-        <f>E38+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.65561483024175604</v>
       </c>
       <c r="H38" s="2">
-        <f>E38-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.64653226206163728</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39">
-        <f>$I$2*D18+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.66408107266662042</v>
       </c>
       <c r="F39">
-        <f>F18-E39</f>
+        <f t="shared" si="5"/>
         <v>1.1509134949039823E-2</v>
       </c>
       <c r="G39" s="2">
-        <f>E39+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.6686223567566798</v>
       </c>
       <c r="H39" s="2">
-        <f>E39-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.65953978857656104</v>
       </c>
     </row>
@@ -26897,31 +26843,31 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -26944,7 +26890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4</v>
       </c>
@@ -26971,7 +26917,7 @@
         <v>8.6788407786754559E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>8</v>
       </c>
@@ -26982,23 +26928,23 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D18" si="0">SIN(A4*PI()/180)</f>
+        <f t="shared" ref="D4:D11" si="0">SIN(A4*PI()/180)</f>
         <v>0.13917310096006544</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E18" si="1">SQRT((PI()/180*COS(A4/180*PI())*0.5)^2)</f>
+        <f t="shared" ref="E4:E11" si="1">SQRT((PI()/180*COS(A4/180*PI())*0.5)^2)</f>
         <v>8.6417191384529721E-3</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F18" si="2">SIN(B4*PI()/180)</f>
+        <f t="shared" ref="F4:F11" si="2">SIN(B4*PI()/180)</f>
         <v>0.19936793441719716</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G18" si="3">SQRT((PI()/180*COS(B4/180*PI())*C4)^2)</f>
+        <f t="shared" ref="G4:G10" si="3">SQRT((PI()/180*COS(B4/180*PI())*C4)^2)</f>
         <v>8.551456258633185E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>12</v>
       </c>
@@ -27025,7 +26971,7 @@
         <v>8.2995337909487661E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>16</v>
       </c>
@@ -27053,7 +26999,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>20</v>
       </c>
@@ -27081,7 +27027,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>24</v>
       </c>
@@ -27109,7 +27055,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>28</v>
       </c>
@@ -27136,7 +27082,7 @@
         <v>1.2764530089902708E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>32</v>
       </c>
@@ -27163,7 +27109,7 @@
         <v>1.4066470852992124E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>36</v>
       </c>
@@ -27190,7 +27136,7 @@
         <v>1.3120765702978744E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="I12" s="9" t="s">
         <v>15</v>
       </c>
@@ -27198,13 +27144,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="I13" s="9" t="s">
         <v>16</v>
       </c>
@@ -27213,11 +27159,11 @@
         <v>1.6128214314491121</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <f t="array" ref="C14:D16">LINEST(F3:F11,D3:D11,1,1)</f>
         <v>1.6128214314491121</v>
       </c>
@@ -27234,11 +27180,11 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>4.736015799441768E-2</v>
       </c>
       <c r="D15" s="15">
@@ -27255,7 +27201,7 @@
         <v>8.243049090544434E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
@@ -27276,7 +27222,7 @@
         <v>1.8207091340525602E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="I17" s="4" t="s">
         <v>20</v>
       </c>
@@ -27285,7 +27231,7 @@
         <v>1.1288969122990027E-2</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -27299,193 +27245,193 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f>$C$14*D3+$D$14</f>
+        <f t="shared" ref="E24:E32" si="4">$C$14*D3+$D$14</f>
         <v>8.8584578692971719E-2</v>
       </c>
-      <c r="F24" s="21">
-        <f>F3-E24</f>
+      <c r="F24" s="18">
+        <f t="shared" ref="F24:F32" si="5">F3-E24</f>
         <v>1.5943884574681738E-2</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+$D$16</f>
+        <f t="shared" ref="G24:G32" si="6">E24+$D$16</f>
         <v>0.11243123478263108</v>
       </c>
       <c r="H24" s="2">
-        <f>E24-$D$16</f>
+        <f t="shared" ref="H24:H32" si="7">E24-$D$16</f>
         <v>6.4737922603312362E-2</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f>$C$14*D4+$D$14</f>
+        <f t="shared" si="4"/>
         <v>0.20054120276575368</v>
       </c>
       <c r="F25">
-        <f>F4-E25</f>
+        <f t="shared" si="5"/>
         <v>-1.1732683485565221E-3</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+$D$16</f>
+        <f t="shared" si="6"/>
         <v>0.22438785885541304</v>
       </c>
       <c r="H25" s="2">
-        <f>E25-$D$16</f>
+        <f t="shared" si="7"/>
         <v>0.17669454667609433</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f>$C$14*D5+$D$14</f>
+        <f t="shared" si="4"/>
         <v>0.31140427365583295</v>
       </c>
       <c r="F26">
-        <f>F5-E26</f>
+        <f t="shared" si="5"/>
         <v>-2.387279280885557E-3</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+$D$16</f>
+        <f t="shared" si="6"/>
         <v>0.33525092974549231</v>
       </c>
       <c r="H26" s="2">
-        <f>E26-$D$16</f>
+        <f t="shared" si="7"/>
         <v>0.2875576175661736</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>$C$14*D6+$D$14</f>
+        <f t="shared" si="4"/>
         <v>0.42063367762574999</v>
       </c>
       <c r="F27">
-        <f>F6-E27</f>
+        <f t="shared" si="5"/>
         <v>-5.9404349695109659E-3</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+$D$16</f>
+        <f t="shared" si="6"/>
         <v>0.44448033371540935</v>
       </c>
       <c r="H27" s="2">
-        <f>E27-$D$16</f>
+        <f t="shared" si="7"/>
         <v>0.39678702153609063</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>$C$14*D7+$D$14</f>
+        <f t="shared" si="4"/>
         <v>0.52769725999906458</v>
       </c>
       <c r="F28">
-        <f>F7-E28</f>
+        <f t="shared" si="5"/>
         <v>-1.4833363471949967E-3</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+$D$16</f>
+        <f t="shared" si="6"/>
         <v>0.551543916088724</v>
       </c>
       <c r="H28" s="2">
-        <f>E28-$D$16</f>
+        <f t="shared" si="7"/>
         <v>0.50385060390940517</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f>$C$14*D8+$D$14</f>
+        <f t="shared" si="4"/>
         <v>0.6320734177644477</v>
       </c>
       <c r="F29">
-        <f>F8-E29</f>
+        <f t="shared" si="5"/>
         <v>4.0048025133162524E-3</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+$D$16</f>
+        <f t="shared" si="6"/>
         <v>0.65592007385410711</v>
       </c>
       <c r="H29" s="2">
-        <f>E29-$D$16</f>
+        <f t="shared" si="7"/>
         <v>0.60822676167478829</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f>$C$14*D9+$D$14</f>
+        <f t="shared" si="4"/>
         <v>0.73325364077312127</v>
       </c>
       <c r="F30">
-        <f>F9-E30</f>
+        <f t="shared" si="5"/>
         <v>-5.1255280710622797E-2</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+$D$16</f>
+        <f t="shared" si="6"/>
         <v>0.75710029686278069</v>
       </c>
       <c r="H30" s="2">
-        <f>E30-$D$16</f>
+        <f t="shared" si="7"/>
         <v>0.70940698468346186</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f>$C$14*D10+$D$14</f>
+        <f t="shared" si="4"/>
         <v>0.83074498914918693</v>
       </c>
       <c r="F31">
-        <f>F10-E31</f>
+        <f t="shared" si="5"/>
         <v>1.2646456663698791E-2</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+$D$16</f>
+        <f t="shared" si="6"/>
         <v>0.85459164523884634</v>
       </c>
       <c r="H31" s="2">
-        <f>E31-$D$16</f>
+        <f t="shared" si="7"/>
         <v>0.80689833305952752</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f>$C$14*D11+$D$14</f>
+        <f t="shared" si="4"/>
         <v>0.92407249484315312</v>
       </c>
       <c r="F32">
-        <f>F11-E32</f>
+        <f t="shared" si="5"/>
         <v>2.9644455905073697E-2</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+$D$16</f>
+        <f t="shared" si="6"/>
         <v>0.94791915093281254</v>
       </c>
       <c r="H32" s="2">
-        <f>E32-$D$16</f>
+        <f t="shared" si="7"/>
         <v>0.90022583875349371</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
@@ -27512,31 +27458,31 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -27559,7 +27505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4</v>
       </c>
@@ -27586,7 +27532,7 @@
         <v>8.6705501183531822E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>8</v>
       </c>
@@ -27597,23 +27543,23 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D18" si="0">SIN(A4*PI()/180)</f>
+        <f t="shared" ref="D4:D12" si="0">SIN(A4*PI()/180)</f>
         <v>0.13917310096006544</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E18" si="1">SQRT((PI()/180*COS(A4/180*PI())*0.5)^2)</f>
+        <f t="shared" ref="E4:E12" si="1">SQRT((PI()/180*COS(A4/180*PI())*0.5)^2)</f>
         <v>8.6417191384529721E-3</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F18" si="2">SIN(B4*PI()/180)</f>
+        <f t="shared" ref="F4:F12" si="2">SIN(B4*PI()/180)</f>
         <v>0.21643961393810288</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G18" si="3">SQRT((PI()/180*COS(B4/180*PI())*C4)^2)</f>
+        <f t="shared" ref="G4:G10" si="3">SQRT((PI()/180*COS(B4/180*PI())*C4)^2)</f>
         <v>8.5197898991584194E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>12</v>
       </c>
@@ -27640,7 +27586,7 @@
         <v>8.2756850789478219E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>16</v>
       </c>
@@ -27668,7 +27614,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>20</v>
       </c>
@@ -27696,7 +27642,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>24</v>
       </c>
@@ -27724,7 +27670,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>28</v>
       </c>
@@ -27751,7 +27697,7 @@
         <v>1.2448568729068873E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>32</v>
       </c>
@@ -27778,7 +27724,7 @@
         <v>1.584655955081354E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>36</v>
       </c>
@@ -27805,29 +27751,29 @@
         <v>8.1938245150970784E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>40</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>74</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <f t="shared" si="1"/>
         <v>6.6849988745162929E-3</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <f t="shared" si="2"/>
         <v>0.96126169593831889</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <f>SQRT((PI()/180*COS(B12/180*PI())*C12)^2)</f>
         <v>9.6215588009955604E-3</v>
       </c>
@@ -27838,7 +27784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="I13" s="9" t="s">
         <v>16</v>
       </c>
@@ -27847,13 +27793,13 @@
         <v>1.481221363290105</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
@@ -27861,11 +27807,11 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <f t="array" ref="C15:D17">LINEST(F3:F11,D3:D11,1,1)</f>
         <v>1.481221363290105</v>
       </c>
@@ -27883,11 +27829,11 @@
         <v>5.8917024898624045E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>6.5256952219019688E-3</v>
       </c>
       <c r="D16" s="15">
@@ -27904,7 +27850,7 @@
         <v>2.9743142526655396E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
@@ -27925,7 +27871,7 @@
         <v>2.008014687324628E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -27939,193 +27885,193 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f>$C$15*D3+$D$15</f>
+        <f t="shared" ref="E24:E32" si="4">$C$15*D3+$D$15</f>
         <v>0.11343347731669928</v>
       </c>
-      <c r="F24" s="21">
-        <f>F3-E24</f>
+      <c r="F24" s="18">
+        <f t="shared" ref="F24:F32" si="5">F3-E24</f>
         <v>-2.3026354879256139E-4</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+$D$17</f>
+        <f t="shared" ref="G24:G32" si="6">E24+$D$17</f>
         <v>0.11671927737084969</v>
       </c>
       <c r="H24" s="2">
-        <f>E24-$D$17</f>
+        <f t="shared" ref="H24:H32" si="7">E24-$D$17</f>
         <v>0.11014767726254887</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f>$C$15*D4+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.21625486851649514</v>
       </c>
       <c r="F25">
-        <f>F4-E25</f>
+        <f t="shared" si="5"/>
         <v>1.8474542160773488E-4</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.21954066857064555</v>
       </c>
       <c r="H25" s="2">
-        <f>E25-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.21296906846234473</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f>$C$15*D5+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.31807193629614783</v>
       </c>
       <c r="F26">
-        <f>F5-E26</f>
+        <f t="shared" si="5"/>
         <v>-7.6727989105568328E-4</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.32135773635029824</v>
       </c>
       <c r="H26" s="2">
-        <f>E26-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.31478613624199742</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>$C$15*D6+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.41838863813605082</v>
       </c>
       <c r="F27">
-        <f>F6-E27</f>
+        <f t="shared" si="5"/>
         <v>2.7109940137731714E-4</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.42167443819020123</v>
       </c>
       <c r="H27" s="2">
-        <f>E27-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.4151028380819004</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>$C$15*D7+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.51671624114863968</v>
       </c>
       <c r="F28">
-        <f>F7-E28</f>
+        <f t="shared" si="5"/>
         <v>5.7823235673091222E-3</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.52000204120279003</v>
       </c>
       <c r="H28" s="2">
-        <f>E28-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.51343044109448932</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f>$C$15*D8+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.61257570313589316</v>
       </c>
       <c r="F29">
-        <f>F8-E29</f>
+        <f t="shared" si="5"/>
         <v>-3.8142741271725011E-3</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.61586150319004351</v>
       </c>
       <c r="H29" s="2">
-        <f>E29-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.6092899030817428</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f>$C$15*D9+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.70550000643476896</v>
       </c>
       <c r="F30">
-        <f>F9-E30</f>
+        <f t="shared" si="5"/>
         <v>-4.5907421349180577E-3</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.70878580648891931</v>
       </c>
       <c r="H30" s="2">
-        <f>E30-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.7022142063806186</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f>$C$15*D10+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.79503643318031281</v>
       </c>
       <c r="F31">
-        <f>F10-E31</f>
+        <f t="shared" si="5"/>
         <v>9.6556935430924806E-4</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.79832223323446316</v>
       </c>
       <c r="H31" s="2">
-        <f>E31-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.79175063312616245</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f>$C$15*D11+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.88074877090159087</v>
       </c>
       <c r="F32">
-        <f>F11-E32</f>
+        <f t="shared" si="5"/>
         <v>2.1988219573360057E-3</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.88403457095574123</v>
       </c>
       <c r="H32" s="2">
-        <f>E32-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.87746297084744052</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
@@ -28151,37 +28097,37 @@
       <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -28206,7 +28152,7 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <f t="array" ref="I2:J4">LINEST(F3:F16,D3:D16,1,1)</f>
         <v>0.68275450973992824</v>
       </c>
@@ -28217,7 +28163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -28246,7 +28192,7 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="17">
         <v>1.0186083124514769E-2</v>
       </c>
       <c r="J3" s="15">
@@ -28256,7 +28202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>10</v>
       </c>
@@ -28295,7 +28241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>15</v>
       </c>
@@ -28322,7 +28268,7 @@
         <v>8.606965555918767E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -28350,7 +28296,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>25</v>
       </c>
@@ -28378,7 +28324,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>30</v>
       </c>
@@ -28412,7 +28358,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>35</v>
       </c>
@@ -28446,7 +28392,7 @@
         <v>1.4646552834647926</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>40</v>
       </c>
@@ -28479,7 +28425,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45</v>
       </c>
@@ -28513,7 +28459,7 @@
         <v>1.7009876869266728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>50</v>
       </c>
@@ -28547,7 +28493,7 @@
         <v>2.1851339322262454E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>55</v>
       </c>
@@ -28581,7 +28527,7 @@
         <v>1.4919100466132117E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>60</v>
       </c>
@@ -28608,7 +28554,7 @@
         <v>7.0149744662577895E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>70</v>
       </c>
@@ -28635,7 +28581,7 @@
         <v>6.7818778980005458E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>80</v>
       </c>
@@ -28662,7 +28608,7 @@
         <v>6.535871639707716E-3</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
@@ -28676,255 +28622,255 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22">
-        <f>$I$2*D3+$J$2</f>
+        <f t="shared" ref="E22:E35" si="4">$I$2*D3+$J$2</f>
         <v>5.1658138676758891E-2</v>
       </c>
       <c r="F22">
-        <f>F3-E22</f>
+        <f t="shared" ref="F22:F35" si="5">F3-E22</f>
         <v>6.7781756618493644E-4</v>
       </c>
       <c r="G22" s="2">
-        <f>E22+$J$4</f>
+        <f t="shared" ref="G22:G35" si="6">E22+$J$4</f>
         <v>6.227263867279275E-2</v>
       </c>
       <c r="H22" s="2">
-        <f>E22-$J$4</f>
+        <f t="shared" ref="H22:H35" si="7">E22-$J$4</f>
         <v>4.1043638680725032E-2</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23">
-        <f>$I$2*D4+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.1107112386762792</v>
       </c>
       <c r="F23">
-        <f>F4-E23</f>
+        <f t="shared" si="5"/>
         <v>1.9814953543772371E-2</v>
       </c>
       <c r="G23" s="2">
-        <f>E23+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.12132573867231305</v>
       </c>
       <c r="H23" s="2">
-        <f>E23-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.10009673868024535</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f>$I$2*D5+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.16886203251639015</v>
       </c>
       <c r="F24">
-        <f>F5-E24</f>
+        <f t="shared" si="5"/>
         <v>-3.8144266557125217E-3</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.17947653251242401</v>
       </c>
       <c r="H24" s="2">
-        <f>E24-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.15824753252035628</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f>$I$2*D6+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.22566795754355917</v>
       </c>
       <c r="F25">
-        <f>F6-E25</f>
+        <f t="shared" si="5"/>
         <v>-1.7756266725799857E-2</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.23628245753959304</v>
       </c>
       <c r="H25" s="2">
-        <f>E25-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.21505345754752531</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f>$I$2*D7+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.28069668636797412</v>
       </c>
       <c r="F26">
-        <f>F7-E26</f>
+        <f t="shared" si="5"/>
         <v>-1.3458310289717279E-2</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.29131118636400799</v>
       </c>
       <c r="H26" s="2">
-        <f>E26-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.27008218637194026</v>
       </c>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>$I$2*D8+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.3335294171360263</v>
       </c>
       <c r="F27">
-        <f>F8-E27</f>
+        <f t="shared" si="5"/>
         <v>2.7744209774460682E-4</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.34414391713206016</v>
       </c>
       <c r="H27" s="2">
-        <f>E27-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.32291491713999243</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>$I$2*D9+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.38376406086529585</v>
       </c>
       <c r="F28">
-        <f>F9-E28</f>
+        <f t="shared" si="5"/>
         <v>-1.0806285002060712E-3</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.39437856086132972</v>
       </c>
       <c r="H28" s="2">
-        <f>E28-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.37314956086926199</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f>$I$2*D10+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.43101830158449567</v>
       </c>
       <c r="F29">
-        <f>F10-E29</f>
+        <f t="shared" si="5"/>
         <v>1.5179511525313105E-2</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.44163280158052953</v>
       </c>
       <c r="H29" s="2">
-        <f>E29-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.4204038015884618</v>
       </c>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f>$I$2*D11+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.47493250598886216</v>
       </c>
       <c r="F30">
-        <f>F11-E30</f>
+        <f t="shared" si="5"/>
         <v>2.2262542707462418E-3</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.48554700598489603</v>
       </c>
       <c r="H30" s="2">
-        <f>E30-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.4643180059928283</v>
       </c>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f>$I$2*D12+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.51517246046675647</v>
       </c>
       <c r="F31">
-        <f>F12-E31</f>
+        <f t="shared" si="5"/>
         <v>-7.634097506052373E-3</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.52578696046279028</v>
       </c>
       <c r="H31" s="2">
-        <f>E31-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.50455796047072266</v>
       </c>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f>$I$2*D13+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.55143191466705277</v>
       </c>
       <c r="F32">
-        <f>F13-E32</f>
+        <f t="shared" si="5"/>
         <v>5.0507064500537879E-4</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.56204641466308658</v>
       </c>
       <c r="H32" s="2">
-        <f>E32-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.54081741467101896</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33">
-        <f>$I$2*D14+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.58343491224922994</v>
       </c>
       <c r="F33">
-        <f>F14-E33</f>
+        <f t="shared" si="5"/>
         <v>1.1387874502111317E-2</v>
       </c>
       <c r="G33" s="2">
-        <f>E33+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.59404941224526375</v>
       </c>
       <c r="H33" s="2">
-        <f>E33-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.57282041225319613</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34">
-        <f>$I$2*D15+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.63373153687697337</v>
       </c>
       <c r="F34">
-        <f>F15-E34</f>
+        <f t="shared" si="5"/>
         <v>-4.411145827135976E-3</v>
       </c>
       <c r="G34" s="2">
-        <f>E34+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.64434603687300718</v>
       </c>
       <c r="H34" s="2">
-        <f>E34-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.62311703688093956</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35">
-        <f>$I$2*D16+$J$2</f>
+        <f t="shared" si="4"/>
         <v>0.66453409686199261</v>
       </c>
       <c r="F35">
-        <f>F16-E35</f>
+        <f t="shared" si="5"/>
         <v>-1.9140486462551065E-3</v>
       </c>
       <c r="G35" s="2">
-        <f>E35+$J$4</f>
+        <f t="shared" si="6"/>
         <v>0.67514859685802642</v>
       </c>
       <c r="H35" s="2">
-        <f>E35-$J$4</f>
+        <f t="shared" si="7"/>
         <v>0.6539195968659588</v>
       </c>
     </row>
@@ -28950,31 +28896,31 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -28997,7 +28943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4</v>
       </c>
@@ -29024,7 +28970,7 @@
         <v>8.6934387363059168E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>8</v>
       </c>
@@ -29035,23 +28981,23 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D18" si="0">SIN(A4*PI()/180)</f>
+        <f t="shared" ref="D4:D12" si="0">SIN(A4*PI()/180)</f>
         <v>0.13917310096006544</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E18" si="1">SQRT((PI()/180*COS(A4/180*PI())*0.5)^2)</f>
+        <f t="shared" ref="E4:E12" si="1">SQRT((PI()/180*COS(A4/180*PI())*0.5)^2)</f>
         <v>8.6417191384529721E-3</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F18" si="2">SIN(B4*PI()/180)</f>
+        <f t="shared" ref="F4:F12" si="2">SIN(B4*PI()/180)</f>
         <v>0.19509032201612825</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G18" si="3">SQRT((PI()/180*COS(B4/180*PI())*C4)^2)</f>
+        <f t="shared" ref="G4:G10" si="3">SQRT((PI()/180*COS(B4/180*PI())*C4)^2)</f>
         <v>8.5589661990660947E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>12</v>
       </c>
@@ -29078,7 +29024,7 @@
         <v>8.3227504613185791E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>16</v>
       </c>
@@ -29106,7 +29052,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>20</v>
       </c>
@@ -29134,7 +29080,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>24</v>
       </c>
@@ -29162,7 +29108,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>28</v>
       </c>
@@ -29189,7 +29135,7 @@
         <v>1.2554847956548085E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>32</v>
       </c>
@@ -29216,7 +29162,7 @@
         <v>1.0745319822118566E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>36</v>
       </c>
@@ -29243,29 +29189,29 @@
         <v>1.2891618657296537E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>40</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>72.5</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>1.5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <f t="shared" si="1"/>
         <v>6.6849988745162929E-3</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <f t="shared" si="2"/>
         <v>0.95371695074822682</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <f>SQRT((PI()/180*COS(B12/180*PI())*C12)^2)</f>
         <v>7.8724594217872458E-3</v>
       </c>
@@ -29276,7 +29222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="I13" s="9" t="s">
         <v>16</v>
       </c>
@@ -29285,13 +29231,13 @@
         <v>1.5127197686409763</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
@@ -29299,11 +29245,11 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <f t="array" ref="C15:D17">LINEST(F3:F11,D3:D11,1,1)</f>
         <v>1.5127197686409763</v>
       </c>
@@ -29321,11 +29267,11 @@
         <v>1.5248166873138494E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>1.6282792300327489E-2</v>
       </c>
       <c r="D16" s="15">
@@ -29342,7 +29288,7 @@
         <v>7.1156064205533465E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
@@ -29363,7 +29309,7 @@
         <v>4.7038496938173746E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -29377,193 +29323,193 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f>$C$15*D3+$D$15</f>
+        <f t="shared" ref="E24:E32" si="4">$C$15*D3+$D$15</f>
         <v>9.1178572448230036E-2</v>
       </c>
-      <c r="F24" s="21">
-        <f>F3-E24</f>
+      <c r="F24" s="18">
+        <f t="shared" ref="F24:F32" si="5">F3-E24</f>
         <v>-4.0228297005718699E-3</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+$D$17</f>
+        <f t="shared" ref="G24:G32" si="6">E24+$D$17</f>
         <v>9.9377239104093615E-2</v>
       </c>
       <c r="H24" s="2">
-        <f>E24-$D$17</f>
+        <f t="shared" ref="H24:H32" si="7">E24-$D$17</f>
         <v>8.2979905792366457E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f>$C$15*D4+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.1961864767101639</v>
       </c>
       <c r="F25">
-        <f>F4-E25</f>
+        <f t="shared" si="5"/>
         <v>-1.0961546940356504E-3</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.20438514336602748</v>
       </c>
       <c r="H25" s="2">
-        <f>E25-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.18798781005430032</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f>$C$15*D5+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.30016870045640154</v>
       </c>
       <c r="F26">
-        <f>F5-E26</f>
+        <f t="shared" si="5"/>
         <v>5.3709904787158091E-4</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.30836736711226509</v>
       </c>
       <c r="H26" s="2">
-        <f>E26-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.29197003380053799</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>$C$15*D6+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.40261865274510794</v>
       </c>
       <c r="F27">
-        <f>F6-E27</f>
+        <f t="shared" si="5"/>
         <v>-3.8695838198617438E-3</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.41081731940097149</v>
       </c>
       <c r="H27" s="2">
-        <f>E27-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.39441998608924439</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>$C$15*D7+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.50303720770696558</v>
       </c>
       <c r="F28">
-        <f>F7-E28</f>
+        <f t="shared" si="5"/>
         <v>1.9461357008983216E-2</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.51123587436282913</v>
       </c>
       <c r="H28" s="2">
-        <f>E28-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.49483854105110203</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f>$C$15*D8+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.60093513623623829</v>
       </c>
       <c r="F29">
-        <f>F8-E29</f>
+        <f t="shared" si="5"/>
         <v>-6.1123494848970283E-3</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.60913380289210184</v>
       </c>
       <c r="H29" s="2">
-        <f>E29-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.59273646958037474</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f>$C$15*D9+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.69583548946579676</v>
       </c>
       <c r="F30">
-        <f>F9-E30</f>
+        <f t="shared" si="5"/>
         <v>-1.1771190067995096E-3</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.70403415612166032</v>
       </c>
       <c r="H30" s="2">
-        <f>E30-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.68763682280993321</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f>$C$15*D10+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.78727592241405664</v>
       </c>
       <c r="F31">
-        <f>F10-E31</f>
+        <f t="shared" si="5"/>
         <v>7.34831192665375E-4</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.79547458906992019</v>
       </c>
       <c r="H31" s="2">
-        <f>E31-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.77907725575819309</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f>$C$15*D11+$D$15</f>
+        <f t="shared" si="4"/>
         <v>0.8748109464832543</v>
       </c>
       <c r="F32">
-        <f>F11-E32</f>
+        <f t="shared" si="5"/>
         <v>-4.4552505433546052E-3</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+$D$17</f>
+        <f t="shared" si="6"/>
         <v>0.88300961313911785</v>
       </c>
       <c r="H32" s="2">
-        <f>E32-$D$17</f>
+        <f t="shared" si="7"/>
         <v>0.86661227982739075</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
@@ -29585,41 +29531,41 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -29644,23 +29590,23 @@
       <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="20">
-        <f t="array" ref="I2:J4">LINEST(F3:F18,D3:D18,1,1)</f>
-        <v>0.68467147648474458</v>
+      <c r="I2" s="17">
+        <f t="array" ref="I2:J4">LINEST(F3:F16,D3:D16,1,1)</f>
+        <v>0.65798932609540939</v>
       </c>
       <c r="J2" s="15">
-        <v>-4.0991810448752219E-3</v>
+        <v>2.9641251645411426E-3</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C3" s="5">
         <v>0.5</v>
@@ -29675,26 +29621,26 @@
       </c>
       <c r="F3" s="5">
         <f>SIN(B3*PI()/180)</f>
-        <v>5.2335956242943828E-2</v>
+        <v>6.1048539534856873E-2</v>
       </c>
       <c r="G3" s="16">
         <f>SQRT((PI()/180*COS(B3/180*PI())*C3)^2)</f>
-        <v>8.7146866945632291E-3</v>
+        <v>8.7103693055957387E-3</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="20">
-        <v>2.3676133651069271E-3</v>
+      <c r="I3" s="17">
+        <v>4.0649514804213345E-3</v>
       </c>
       <c r="J3" s="15">
-        <v>1.6218147363907247E-3</v>
+        <v>2.6058276760441935E-3</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>10</v>
       </c>
@@ -29724,21 +29670,21 @@
         <v>5</v>
       </c>
       <c r="I4" s="15">
-        <v>0.99983261658248479</v>
+        <v>0.99954222146483995</v>
       </c>
       <c r="J4" s="15">
-        <v>2.7128172483760504E-3</v>
+        <v>4.235919434916793E-3</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>15</v>
       </c>
       <c r="B5" s="5">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="C5" s="5">
         <v>0.5</v>
@@ -29753,14 +29699,14 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>0.17364817766693033</v>
+        <v>0.16504760586067763</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="3"/>
-        <v>8.5940688946150676E-3</v>
+        <v>8.606965555918767E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -29788,7 +29734,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>25</v>
       </c>
@@ -29816,12 +29762,12 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>30</v>
       </c>
       <c r="B8" s="5">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="C8" s="5">
         <v>0.5</v>
@@ -29836,11 +29782,11 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>0.34202014332566871</v>
+        <v>0.3338068592337709</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="3"/>
-        <v>8.2003650947043028E-3</v>
+        <v>8.2260988427336566E-3</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>15</v>
@@ -29850,12 +29796,12 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>35</v>
       </c>
       <c r="B9" s="5">
-        <v>23</v>
+        <v>22.75</v>
       </c>
       <c r="C9" s="5">
         <v>0.5</v>
@@ -29870,26 +29816,26 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>0.39073112848927372</v>
+        <v>0.38671096163682062</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>8.0329202366664892E-3</v>
+        <v>8.0477216603701673E-3</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="6">
         <f>J8/I2</f>
-        <v>1.4605544912345729</v>
+        <v>1.5197814924052409</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>40</v>
       </c>
       <c r="B10" s="5">
-        <v>26</v>
+        <v>25.25</v>
       </c>
       <c r="C10" s="5">
         <v>0.5</v>
@@ -29904,11 +29850,11 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>0.4383711467890774</v>
+        <v>0.42656873990145833</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" si="3"/>
-        <v>7.8434577026214106E-3</v>
+        <v>7.8928601123914727E-3</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>17</v>
@@ -29917,12 +29863,12 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45</v>
       </c>
       <c r="B11" s="6">
-        <v>28.5</v>
+        <v>27.75</v>
       </c>
       <c r="C11" s="5">
         <v>0.5</v>
@@ -29937,26 +29883,26 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>0.47715876025960841</v>
+        <v>0.46561452032511141</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" si="3"/>
-        <v>7.6691260694106223E-3</v>
+        <v>7.7229740565879987E-3</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="12">
         <f>ABS(J9-J10)/J10</f>
-        <v>1.9762086419749709E-2</v>
+        <v>1.9987578795463666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>50</v>
       </c>
       <c r="B12" s="5">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="C12" s="5">
         <v>0.5</v>
@@ -29971,26 +29917,26 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>0.5224985647159488</v>
+        <v>0.50753836296070409</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" si="3"/>
-        <v>7.4406891013622497E-3</v>
+        <v>7.5191328904495522E-3</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="13">
         <f>SQRT((-(1/(I2^2))*I3)^2)</f>
-        <v>5.0506388139143878E-3</v>
+        <v>9.3889638972256412E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>55</v>
       </c>
       <c r="B13" s="5">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>0.5</v>
@@ -30005,26 +29951,26 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>0.55193698531205815</v>
+        <v>0.54463903501502708</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="3"/>
-        <v>7.2770265903858364E-3</v>
+        <v>7.3187813751092326E-3</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="14">
         <f>J12/J9</f>
-        <v>3.4580283339139231E-3</v>
+        <v>6.1778380274696287E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>60</v>
       </c>
       <c r="B14" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5">
         <v>0.5</v>
@@ -30039,30 +29985,30 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>0.58778525229247314</v>
+        <v>0.57357643635104605</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="3"/>
-        <v>7.0600051282156389E-3</v>
+        <v>7.1484501236426601E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5">
         <v>38</v>
       </c>
       <c r="C15" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>0.90630778703664994</v>
+        <v>0.93969262078590832</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="1"/>
-        <v>3.6880400732151935E-3</v>
+        <v>2.9846888045879146E-3</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="2"/>
@@ -30070,91 +30016,37 @@
       </c>
       <c r="G15" s="16">
         <f t="shared" si="3"/>
-        <v>6.8766910957795396E-3</v>
+        <v>2.0630073287338617E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="C16" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>0.93969262078590832</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" si="1"/>
-        <v>2.9846888045879146E-3</v>
+        <v>1.5153662201880106E-3</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>0.64278760968653925</v>
+        <v>0.64944804833018366</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="3"/>
-        <v>6.6849988745162929E-3</v>
+        <v>1.9907381627290919E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>75</v>
-      </c>
-      <c r="B17" s="5">
-        <v>41</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>0.96592582628906831</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="1"/>
-        <v>2.2586222519533458E-3</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>0.65605902899050716</v>
-      </c>
-      <c r="G17" s="16">
-        <f t="shared" si="3"/>
-        <v>6.5860835356158255E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>80</v>
-      </c>
-      <c r="B18" s="5">
-        <v>42</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="E18" s="16">
-        <f t="shared" si="1"/>
-        <v>1.5153662201880106E-3</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.66913060635885824</v>
-      </c>
-      <c r="G18" s="16">
-        <f t="shared" si="3"/>
-        <v>6.4851620118695852E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -30168,292 +30060,292 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f>$I$2*D3+$J$2</f>
-        <v>5.5573870026288462E-2</v>
+        <f t="shared" ref="E24:E39" si="4">$I$2*D3+$J$2</f>
+        <v>6.0311673600417601E-2</v>
       </c>
       <c r="F24">
-        <f>F3-E24</f>
-        <v>-3.2379137833446342E-3</v>
+        <f t="shared" ref="F24:F39" si="5">F3-E24</f>
+        <v>7.3686593443927223E-4</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+$J$4</f>
-        <v>5.828668727466451E-2</v>
+        <f t="shared" ref="G24:G39" si="6">E24+$J$4</f>
+        <v>6.4547593035334389E-2</v>
       </c>
       <c r="H24" s="2">
-        <f>E24-$J$4</f>
-        <v>5.2861052777912414E-2</v>
+        <f t="shared" ref="H24:H39" si="7">E24-$J$4</f>
+        <v>5.6075754165500806E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f>$I$2*D4+$J$2</f>
-        <v>0.11479277314722722</v>
+        <f t="shared" si="4"/>
+        <v>0.11722277256530055</v>
       </c>
       <c r="F25">
-        <f>F4-E25</f>
-        <v>-1.589559379320496E-3</v>
+        <f t="shared" si="5"/>
+        <v>-4.019558797393824E-3</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+$J$4</f>
-        <v>0.11750559039560327</v>
+        <f t="shared" si="6"/>
+        <v>0.12145869200021733</v>
       </c>
       <c r="H25" s="2">
-        <f>E25-$J$4</f>
-        <v>0.11207995589885117</v>
+        <f t="shared" si="7"/>
+        <v>0.11298685313038376</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f>$I$2*D5+$J$2</f>
-        <v>0.17310683670783936</v>
+        <f t="shared" si="4"/>
+        <v>0.17326429423220613</v>
       </c>
       <c r="F26">
-        <f>F5-E26</f>
-        <v>5.4134095909097457E-4</v>
+        <f t="shared" si="5"/>
+        <v>-8.2166883715285022E-3</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+$J$4</f>
-        <v>0.1758196539562154</v>
+        <f t="shared" si="6"/>
+        <v>0.17750021366712293</v>
       </c>
       <c r="H26" s="2">
-        <f>E26-$J$4</f>
-        <v>0.17039401945946331</v>
+        <f t="shared" si="7"/>
+        <v>0.16902837479728933</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>$I$2*D6+$J$2</f>
-        <v>0.23007225547343432</v>
+        <f t="shared" si="4"/>
+        <v>0.22800972878245324</v>
       </c>
       <c r="F27">
-        <f>F6-E27</f>
-        <v>3.3731083824710684E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.4356350734521552E-3</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+$J$4</f>
-        <v>0.23278507272181037</v>
+        <f t="shared" si="6"/>
+        <v>0.23224564821737004</v>
       </c>
       <c r="H27" s="2">
-        <f>E27-$J$4</f>
-        <v>0.22735943822505827</v>
+        <f t="shared" si="7"/>
+        <v>0.22377380934753643</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>$I$2*D7+$J$2</f>
-        <v>0.28525548821054569</v>
+        <f t="shared" si="4"/>
+        <v>0.28104243040291732</v>
       </c>
       <c r="F28">
-        <f>F7-E28</f>
-        <v>-1.2401435066230482E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.9729143010053249E-3</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+$J$4</f>
-        <v>0.28796830545892177</v>
+        <f t="shared" si="6"/>
+        <v>0.28527834983783412</v>
       </c>
       <c r="H28" s="2">
-        <f>E28-$J$4</f>
-        <v>0.28254267096216962</v>
+        <f t="shared" si="7"/>
+        <v>0.27680651096800052</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f>$I$2*D8+$J$2</f>
-        <v>0.33823655719749701</v>
+        <f t="shared" si="4"/>
+        <v>0.33195878821224578</v>
       </c>
       <c r="F29">
-        <f>F8-E29</f>
-        <v>3.7835861281717009E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.8480710215251217E-3</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+$J$4</f>
-        <v>0.34094937444587309</v>
+        <f t="shared" si="6"/>
+        <v>0.33619470764716258</v>
       </c>
       <c r="H29" s="2">
-        <f>E29-$J$4</f>
-        <v>0.33552373994912094</v>
+        <f t="shared" si="7"/>
+        <v>0.32772286877732898</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f>$I$2*D9+$J$2</f>
-        <v>0.38861224450845361</v>
+        <f t="shared" si="4"/>
+        <v>0.38037129798337238</v>
       </c>
       <c r="F30">
-        <f>F9-E30</f>
-        <v>2.1188839808201076E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.3396636534482353E-3</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+$J$4</f>
-        <v>0.39132506175682968</v>
+        <f t="shared" si="6"/>
+        <v>0.38460721741828918</v>
       </c>
       <c r="H30" s="2">
-        <f>E30-$J$4</f>
-        <v>0.38589942726007753</v>
+        <f t="shared" si="7"/>
+        <v>0.37613537854845558</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f>$I$2*D10+$J$2</f>
-        <v>0.43599916074530731</v>
+        <f t="shared" si="4"/>
+        <v>0.42591151128466614</v>
       </c>
       <c r="F31">
-        <f>F10-E31</f>
-        <v>2.3719860437700913E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.5722861679218259E-4</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+$J$4</f>
-        <v>0.43871197799368339</v>
+        <f t="shared" si="6"/>
+        <v>0.43014743071958295</v>
       </c>
       <c r="H31" s="2">
-        <f>E31-$J$4</f>
-        <v>0.43328634349693124</v>
+        <f t="shared" si="7"/>
+        <v>0.42167559184974934</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f>$I$2*D11+$J$2</f>
-        <v>0.48003666286249341</v>
+        <f t="shared" si="4"/>
+        <v>0.46823283959497164</v>
       </c>
       <c r="F32">
-        <f>F11-E32</f>
-        <v>-2.8779026028850074E-3</v>
+        <f t="shared" si="5"/>
+        <v>-2.6183192698602253E-3</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+$J$4</f>
-        <v>0.48274948011086949</v>
+        <f t="shared" si="6"/>
+        <v>0.47246875902988844</v>
       </c>
       <c r="H32" s="2">
-        <f>E32-$J$4</f>
-        <v>0.47732384561411734</v>
+        <f t="shared" si="7"/>
+        <v>0.46399692016005484</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33">
-        <f>$I$2*D12+$J$2</f>
-        <v>0.52038959887832936</v>
+        <f t="shared" si="4"/>
+        <v>0.50701319205153061</v>
       </c>
       <c r="F33">
-        <f>F12-E33</f>
-        <v>2.1089658376194365E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.2517090917347797E-4</v>
       </c>
       <c r="G33" s="2">
-        <f>E33+$J$4</f>
-        <v>0.52310241612670538</v>
+        <f t="shared" si="6"/>
+        <v>0.51124911148644736</v>
       </c>
       <c r="H33" s="2">
-        <f>E33-$J$4</f>
-        <v>0.51767678162995334</v>
+        <f t="shared" si="7"/>
+        <v>0.50277727261661387</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34">
-        <f>$I$2*D13+$J$2</f>
-        <v>0.55675085858396578</v>
+        <f t="shared" si="4"/>
+        <v>0.54195742675593184</v>
       </c>
       <c r="F34">
-        <f>F13-E34</f>
-        <v>-4.8138732719076316E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.6816082590952472E-3</v>
       </c>
       <c r="G34" s="2">
-        <f>E34+$J$4</f>
-        <v>0.5594636758323418</v>
+        <f t="shared" si="6"/>
+        <v>0.54619334619084858</v>
       </c>
       <c r="H34" s="2">
-        <f>E34-$J$4</f>
-        <v>0.55403804133558976</v>
+        <f t="shared" si="7"/>
+        <v>0.53772150732101509</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35">
-        <f>$I$2*D14+$J$2</f>
-        <v>0.58884371083751352</v>
+        <f t="shared" si="4"/>
+        <v>0.57279959698216865</v>
       </c>
       <c r="F35">
-        <f>F14-E35</f>
-        <v>-1.0584585450403861E-3</v>
+        <f t="shared" si="5"/>
+        <v>7.7683936887740224E-4</v>
       </c>
       <c r="G35" s="2">
-        <f>E35+$J$4</f>
-        <v>0.59155652808588954</v>
+        <f t="shared" si="6"/>
+        <v>0.57703551641708539</v>
       </c>
       <c r="H35" s="2">
-        <f>E35-$J$4</f>
-        <v>0.5861308935891375</v>
+        <f t="shared" si="7"/>
+        <v>0.5685636775472519</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36">
-        <f>$I$2*D15+$J$2</f>
-        <v>0.61642390965512939</v>
+        <f t="shared" si="4"/>
+        <v>0.62127183945229003</v>
       </c>
       <c r="F36">
-        <f>F15-E36</f>
-        <v>-7.624343294712066E-4</v>
+        <f t="shared" si="5"/>
+        <v>-5.6103641266318505E-3</v>
       </c>
       <c r="G36" s="2">
-        <f>E36+$J$4</f>
-        <v>0.61913672690350541</v>
+        <f t="shared" si="6"/>
+        <v>0.62550775888720678</v>
       </c>
       <c r="H36" s="2">
-        <f>E36-$J$4</f>
-        <v>0.61371109240675337</v>
+        <f t="shared" si="7"/>
+        <v>0.61703592001737328</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37">
-        <f>$I$2*D16+$J$2</f>
-        <v>0.63928155307043188</v>
+        <f t="shared" si="4"/>
+        <v>0.65095711490257824</v>
       </c>
       <c r="F37">
-        <f>F16-E37</f>
-        <v>3.506056616107367E-3</v>
+        <f t="shared" si="5"/>
+        <v>-1.5090665723945795E-3</v>
       </c>
       <c r="G37" s="2">
-        <f>E37+$J$4</f>
-        <v>0.64199437031880791</v>
+        <f t="shared" si="6"/>
+        <v>0.65519303433749498</v>
       </c>
       <c r="H37" s="2">
-        <f>E37-$J$4</f>
-        <v>0.63656873582205586</v>
+        <f t="shared" si="7"/>
+        <v>0.64672119546766149</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38">
-        <f>$I$2*D17+$J$2</f>
-        <v>0.65724268061520807</v>
+        <f t="shared" si="4"/>
+        <v>2.9641251645411426E-3</v>
       </c>
       <c r="F38">
-        <f>F17-E38</f>
-        <v>-1.1836516247009099E-3</v>
+        <f t="shared" si="5"/>
+        <v>-2.9641251645411426E-3</v>
       </c>
       <c r="G38" s="2">
-        <f>E38+$J$4</f>
-        <v>0.6599554978635841</v>
+        <f t="shared" si="6"/>
+        <v>7.2000445994579356E-3</v>
       </c>
       <c r="H38" s="2">
-        <f>E38-$J$4</f>
-        <v>0.65452986336683205</v>
+        <f t="shared" si="7"/>
+        <v>-1.2717942703756504E-3</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39">
-        <f>$I$2*D18+$J$2</f>
-        <v>0.67017059726361694</v>
+        <f t="shared" si="4"/>
+        <v>2.9641251645411426E-3</v>
       </c>
       <c r="F39">
-        <f>F18-E39</f>
-        <v>-1.039990904758703E-3</v>
+        <f t="shared" si="5"/>
+        <v>-2.9641251645411426E-3</v>
       </c>
       <c r="G39" s="2">
-        <f>E39+$J$4</f>
-        <v>0.67288341451199296</v>
+        <f t="shared" si="6"/>
+        <v>7.2000445994579356E-3</v>
       </c>
       <c r="H39" s="2">
-        <f>E39-$J$4</f>
-        <v>0.66745778001524092</v>
+        <f t="shared" si="7"/>
+        <v>-1.2717942703756504E-3</v>
       </c>
     </row>
   </sheetData>
@@ -30475,34 +30367,34 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -30525,7 +30417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>4</v>
       </c>
@@ -30552,7 +30444,7 @@
         <v>8.6788407786754559E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>8</v>
       </c>
@@ -30563,28 +30455,28 @@
         <v>0.5</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D18" si="0">SIN(A4*PI()/180)</f>
+        <f t="shared" ref="D4:D12" si="0">SIN(A4*PI()/180)</f>
         <v>0.13917310096006544</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" ref="E4:E18" si="1">SQRT((PI()/180*COS(A4/180*PI())*0.5)^2)</f>
+        <f t="shared" ref="E4:E12" si="1">SQRT((PI()/180*COS(A4/180*PI())*0.5)^2)</f>
         <v>8.6417191384529721E-3</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F18" si="2">SIN(B4*PI()/180)</f>
+        <f t="shared" ref="F4:F12" si="2">SIN(B4*PI()/180)</f>
         <v>0.24192189559966773</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G18" si="3">SQRT((PI()/180*COS(B4/180*PI())*C4)^2)</f>
+        <f t="shared" ref="G4:G10" si="3">SQRT((PI()/180*COS(B4/180*PI())*C4)^2)</f>
         <v>8.467427570772899E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="C5" s="5">
         <v>0.5</v>
@@ -30599,14 +30491,14 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>0.3090169943749474</v>
+        <v>0.31730465640509214</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="3"/>
-        <v>8.2995337909487661E-3</v>
+        <v>8.2756850789478219E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>16</v>
       </c>
@@ -30634,7 +30526,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>20</v>
       </c>
@@ -30662,7 +30554,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>24</v>
       </c>
@@ -30690,7 +30582,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>28</v>
       </c>
@@ -30717,7 +30609,7 @@
         <v>6.2242843645344366E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>32</v>
       </c>
@@ -30744,7 +30636,7 @@
         <v>6.6594216512278369E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>36</v>
       </c>
@@ -30771,29 +30663,29 @@
         <v>4.2972062190988454E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>40</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="19">
         <v>71</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <f t="shared" si="0"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <f t="shared" si="1"/>
         <v>6.6849988745162929E-3</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <f t="shared" si="2"/>
         <v>0.94551857559931674</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <f>SQRT((PI()/180*COS(B12/180*PI())*C12)^2)</f>
         <v>5.6822362349188372E-3</v>
       </c>
@@ -30804,22 +30696,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="I13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="6">
         <f>J12*C15</f>
-        <v>1.4582521184272716</v>
+        <v>1.4540490001735227</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
@@ -30827,16 +30719,16 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <f t="array" ref="C15:D17">LINEST(F3:F11,D3:D11,1,1)</f>
-        <v>1.4582521184272716</v>
+        <v>1.4540490001735227</v>
       </c>
       <c r="D15" s="15">
-        <v>1.7382938264107861E-2</v>
+        <v>1.9718097556467418E-2</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>2</v>
@@ -30846,18 +30738,18 @@
       </c>
       <c r="J15" s="12">
         <f>ABS(J13-J14)/J14</f>
-        <v>2.1307303068945196E-2</v>
+        <v>2.4128187803004908E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="20">
-        <v>2.2375263158842858E-2</v>
+      <c r="C16" s="17">
+        <v>2.0606380815375924E-2</v>
       </c>
       <c r="D16" s="15">
-        <v>8.4136817611704714E-3</v>
+        <v>7.7485359255559097E-3</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>4</v>
@@ -30867,18 +30759,18 @@
       </c>
       <c r="J16" s="13">
         <f>SQRT((-(1/(C15^2))*C16)^2)</f>
-        <v>1.052211198974985E-2</v>
+        <v>9.7463866717469559E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="15">
-        <v>0.99835466641077797</v>
+        <v>0.99859610939234511</v>
       </c>
       <c r="D17" s="15">
-        <v>1.1266330773800268E-2</v>
+        <v>1.0375668016452655E-2</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>6</v>
@@ -30888,10 +30780,10 @@
       </c>
       <c r="J17" s="14">
         <f>J16/J13</f>
-        <v>7.2155643436321373E-3</v>
+        <v>6.7029286293542002E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -30905,193 +30797,193 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E24">
-        <f>$C$15*D3+$D$15</f>
-        <v>0.11910546387549494</v>
-      </c>
-      <c r="F24" s="21">
-        <f>F3-E24</f>
-        <v>-1.4577000607841478E-2</v>
+        <f t="shared" ref="E24:E32" si="4">$C$15*D3+$D$15</f>
+        <v>0.1211474284597434</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" ref="F24:F32" si="5">F3-E24</f>
+        <v>-1.6618965192089941E-2</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+$D$17</f>
-        <v>0.13037179464929521</v>
+        <f t="shared" ref="G24:G32" si="6">E24+$D$17</f>
+        <v>0.13152309647619606</v>
       </c>
       <c r="H24" s="2">
-        <f>E24-$D$17</f>
-        <v>0.10783913310169467</v>
+        <f t="shared" ref="H24:H32" si="7">E24-$D$17</f>
+        <v>0.11077176044329075</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E25">
-        <f>$C$15*D4+$D$15</f>
-        <v>0.22033240756721584</v>
+        <f t="shared" si="4"/>
+        <v>0.22208260585849929</v>
       </c>
       <c r="F25">
-        <f>F4-E25</f>
-        <v>2.1589488032451892E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.9839289741168442E-2</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+$D$17</f>
-        <v>0.2315987383410161</v>
+        <f t="shared" si="6"/>
+        <v>0.23245827387495194</v>
       </c>
       <c r="H25" s="2">
-        <f>E25-$D$17</f>
-        <v>0.20906607679341557</v>
+        <f t="shared" si="7"/>
+        <v>0.21170693784204664</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E26">
-        <f>$C$15*D5+$D$15</f>
-        <v>0.32057060184490133</v>
+        <f t="shared" si="4"/>
+        <v>0.32203188371441693</v>
       </c>
       <c r="F26">
-        <f>F5-E26</f>
-        <v>-1.155360746995393E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.7272273093247885E-3</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+$D$17</f>
-        <v>0.33183693261870162</v>
+        <f t="shared" si="6"/>
+        <v>0.33240755173086961</v>
       </c>
       <c r="H26" s="2">
-        <f>E26-$D$17</f>
-        <v>0.30930427107110103</v>
+        <f t="shared" si="7"/>
+        <v>0.31165621569796426</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>$C$15*D6+$D$15</f>
-        <v>0.41933169630193856</v>
+        <f t="shared" si="4"/>
+        <v>0.42050831919264858</v>
       </c>
       <c r="F27">
-        <f>F6-E27</f>
-        <v>3.28656543876088E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.1099425480508582E-3</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+$D$17</f>
-        <v>0.43059802707573885</v>
+        <f t="shared" si="6"/>
+        <v>0.43088398720910126</v>
       </c>
       <c r="H27" s="2">
-        <f>E27-$D$17</f>
-        <v>0.40806536552813827</v>
+        <f t="shared" si="7"/>
+        <v>0.41013265117619591</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E28">
-        <f>$C$15*D7+$D$15</f>
-        <v>0.51613453681356336</v>
+        <f t="shared" si="4"/>
+        <v>0.51703214499836092</v>
       </c>
       <c r="F28">
-        <f>F7-E28</f>
-        <v>6.3640279023854385E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.4664197175878781E-3</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+$D$17</f>
-        <v>0.5274008675873636</v>
+        <f t="shared" si="6"/>
+        <v>0.52740781301481354</v>
       </c>
       <c r="H28" s="2">
-        <f>E28-$D$17</f>
-        <v>0.50486820603976312</v>
+        <f t="shared" si="7"/>
+        <v>0.5066564769819083</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29">
-        <f>$C$15*D8+$D$15</f>
-        <v>0.61050750967139056</v>
+        <f t="shared" si="4"/>
+        <v>0.61113310675476962</v>
       </c>
       <c r="F29">
-        <f>F8-E29</f>
-        <v>-1.7460806626699021E-3</v>
+        <f t="shared" si="5"/>
+        <v>-2.3716777460489613E-3</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+$D$17</f>
-        <v>0.6217738404451908</v>
+        <f t="shared" si="6"/>
+        <v>0.62150877477122224</v>
       </c>
       <c r="H29" s="2">
-        <f>E29-$D$17</f>
-        <v>0.59924117889759032</v>
+        <f t="shared" si="7"/>
+        <v>0.600757438738317</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30">
-        <f>$C$15*D9+$D$15</f>
-        <v>0.70199083923799499</v>
+        <f t="shared" si="4"/>
+        <v>0.70235275403519304</v>
       </c>
       <c r="F30">
-        <f>F9-E30</f>
-        <v>-1.081574938144092E-3</v>
+        <f t="shared" si="5"/>
+        <v>-1.4434897353421405E-3</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+$D$17</f>
-        <v>0.71325717001179523</v>
+        <f t="shared" si="6"/>
+        <v>0.71272842205164566</v>
       </c>
       <c r="H30" s="2">
-        <f>E30-$D$17</f>
-        <v>0.69072450846419475</v>
+        <f t="shared" si="7"/>
+        <v>0.69197708601874042</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E31">
-        <f>$C$15*D10+$D$15</f>
-        <v>0.79013882792760004</v>
+        <f t="shared" si="4"/>
+        <v>0.79024667388744785</v>
       </c>
       <c r="F31">
-        <f>F10-E31</f>
-        <v>1.8845139650260911E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.7766680051782835E-3</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+$D$17</f>
-        <v>0.80140515870140028</v>
+        <f t="shared" si="6"/>
+        <v>0.80062234190390047</v>
       </c>
       <c r="H31" s="2">
-        <f>E31-$D$17</f>
-        <v>0.7788724971537998</v>
+        <f t="shared" si="7"/>
+        <v>0.77987100587099523</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E32">
-        <f>$C$15*D11+$D$15</f>
-        <v>0.87452202759991515</v>
+        <f t="shared" si="4"/>
+        <v>0.87438665596907983</v>
       </c>
       <c r="F32">
-        <f>F11-E32</f>
-        <v>-4.1663316600154543E-3</v>
+        <f t="shared" si="5"/>
+        <v>-4.0309600291801306E-3</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+$D$17</f>
-        <v>0.88578835837371539</v>
+        <f t="shared" si="6"/>
+        <v>0.88476232398553245</v>
       </c>
       <c r="H32" s="2">
-        <f>E32-$D$17</f>
-        <v>0.86325569682611492</v>
+        <f t="shared" si="7"/>
+        <v>0.86401098795262721</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
@@ -31107,6 +30999,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A6AC9AE00E36404AA0D09428E6D89785" ma:contentTypeVersion="4" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="90a733a5ab80369601faf008bc080d09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5de1c3e-7813-4da7-ba52-5366b85aaf02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b20cf44b89237f95aaad323f9088c9f4" ns3:_="">
     <xsd:import namespace="c5de1c3e-7813-4da7-ba52-5366b85aaf02"/>
@@ -31252,15 +31153,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -31268,6 +31160,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31035FE3-FFA6-4B27-8A73-A608733C4984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EA959BF-B3E4-420A-A6BB-208B3C612720}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31281,14 +31181,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31035FE3-FFA6-4B27-8A73-A608733C4984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/t1a - snell.xlsx
+++ b/t1a - snell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41442DA4-6439-4DB4-B2D2-3089BF2745B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FAD805-3B6C-4917-8A7E-ACB21DCDDB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB603AAF-03AE-4A56-BE8E-5B256B97D4E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{FB603AAF-03AE-4A56-BE8E-5B256B97D4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-Branco-Plana" sheetId="2" r:id="rId1"/>
@@ -714,6 +714,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,9 +724,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,12 +889,11 @@
           </c:trendline>
           <c:trendline>
             <c:spPr>
-              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -904,8 +903,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.5641102636478288E-2"/>
-                  <c:y val="-1.0935017917174628E-3"/>
+                  <c:x val="-5.3876780452301001E-2"/>
+                  <c:y val="-9.7092646699997436E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -932,7 +931,7 @@
                           <a:schemeClr val="accent1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 0,6556x + 0,338</a:t>
+                      <a:t>y = 0,6847x - 0,0041</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US">
                       <a:solidFill>
@@ -1932,10 +1931,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -4571,12 +4566,534 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Vermelho-Plana'!$G$3:$G$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>8.7103693055957387E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6705501183531822E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.606965555918767E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.4855283291473127E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.3672806532745243E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.2260988427336566E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0477216603701673E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.8928601123914727E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.7229740565879987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.5191328904495522E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.3187813751092326E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.1484501236426601E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.0630073287338617E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.9907381627290919E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Vermelho-Plana'!$G$3:$G$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>8.7103693055957387E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.6705501183531822E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.606965555918767E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.4855283291473127E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.3672806532745243E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.2260988427336566E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0477216603701673E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.8928601123914727E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.7229740565879987E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.5191328904495522E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.3187813751092326E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.1484501236426601E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.0630073287338617E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.9907381627290919E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Vermelho-Plana'!$E$3:$E$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>8.6934387363059168E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5940688946150676E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.4292929993955209E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.2003650947043028E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.9090274601265626E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.5574973509759079E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1484501236426601E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.6849988745162929E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.1706707474421755E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.6093800900271539E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.0053986630907224E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.3633231299858247E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.9846888045879146E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.5153662201880106E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Vermelho-Plana'!$E$3:$E$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>8.6934387363059168E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.5940688946150676E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.4292929993955209E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.2003650947043028E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.9090274601265626E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.5574973509759079E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.1484501236426601E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.6849988745162929E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.1706707474421755E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.6093800900271539E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.0053986630907224E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.3633231299858247E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.9846888045879146E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.5153662201880106E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Vermelho-Plana'!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.7155742747658166E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17364817766693033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25881904510252074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42261826174069944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8191520442889918</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Vermelho-Plana'!$F$3:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.1048539534856873E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11320321376790672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16504760586067763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23344536385590539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28401534470392265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3338068592337709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38671096163682062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42656873990145833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46561452032511141</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50753836296070409</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54463903501502708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61566147532565818</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64944804833018366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E67E-4CA3-8B27-5959788E05CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>+sy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Vermelho-Plana'!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.7155742747658166E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17364817766693033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25881904510252074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34202014332566871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42261826174069944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57357643635104605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64278760968653925</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76604444311897801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8191520442889918</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93969262078590832</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98480775301220802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Vermelho-Plana'!$G$24:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.4547593035334389E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12145869200021733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17750021366712293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23224564821737004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28527834983783412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33619470764716258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38460721741828918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43014743071958295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47246875902988844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51124911148644736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54619334619084858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57703551641708539</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62550775888720678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65519303433749498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2000445994579356E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2000445994579356E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E67E-4CA3-8B27-5959788E05CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>-sy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.5641102636478288E-2"/>
-                  <c:y val="-1.0935017917174628E-3"/>
+                  <c:x val="-3.5322965482026583E-2"/>
+                  <c:y val="-1.8374407702624773E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -4603,7 +5120,7 @@
                           <a:schemeClr val="accent1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 0,6556x + 0,338</a:t>
+                      <a:t>y = 0,658x - 0,0013</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US">
                       <a:solidFill>
@@ -4643,514 +5160,6 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Vermelho-Plana'!$G$3:$G$18</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
-                  <c:pt idx="0">
-                    <c:v>8.7103693055957387E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.6705501183531822E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.606965555918767E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8.4855283291473127E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8.3672806532745243E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>8.2260988427336566E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>8.0477216603701673E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.8928601123914727E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>7.7229740565879987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>7.5191328904495522E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>7.3187813751092326E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>7.1484501236426601E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2.0630073287338617E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1.9907381627290919E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Vermelho-Plana'!$G$3:$G$18</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
-                  <c:pt idx="0">
-                    <c:v>8.7103693055957387E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.6705501183531822E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.606965555918767E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8.4855283291473127E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8.3672806532745243E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>8.2260988427336566E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>8.0477216603701673E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7.8928601123914727E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>7.7229740565879987E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>7.5191328904495522E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>7.3187813751092326E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>7.1484501236426601E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2.0630073287338617E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1.9907381627290919E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Vermelho-Plana'!$E$3:$E$18</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
-                  <c:pt idx="0">
-                    <c:v>8.6934387363059168E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.5940688946150676E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.4292929993955209E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8.2003650947043028E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>7.9090274601265626E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7.5574973509759079E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7.1484501236426601E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>6.6849988745162929E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>6.1706707474421755E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>5.6093800900271539E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5.0053986630907224E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>4.3633231299858247E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2.9846888045879146E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1.5153662201880106E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Vermelho-Plana'!$E$3:$E$18</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="16"/>
-                  <c:pt idx="0">
-                    <c:v>8.6934387363059168E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8.5940688946150676E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>8.4292929993955209E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>8.2003650947043028E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>7.9090274601265626E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7.5574973509759079E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>7.1484501236426601E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>6.6849988745162929E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>6.1706707474421755E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>5.6093800900271539E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5.0053986630907224E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>4.3633231299858247E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2.9846888045879146E-3</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>1.5153662201880106E-3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Vermelho-Plana'!$D$3:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8.7155742747658166E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17364817766693033</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25881904510252074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.34202014332566871</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42261826174069944</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.49999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57357643635104605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64278760968653925</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.70710678118654746</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76604444311897801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8191520442889918</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8660254037844386</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93969262078590832</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.98480775301220802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Vermelho-Plana'!$F$3:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>6.1048539534856873E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11320321376790672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16504760586067763</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23344536385590539</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28401534470392265</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3338068592337709</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.38671096163682062</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.42656873990145833</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.46561452032511141</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50753836296070409</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54463903501502708</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.57357643635104605</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.61566147532565818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.64944804833018366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E67E-4CA3-8B27-5959788E05CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>+sy</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Vermelho-Plana'!$D$3:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>8.7155742747658166E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17364817766693033</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25881904510252074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.34202014332566871</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42261826174069944</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.49999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57357643635104605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64278760968653925</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.70710678118654746</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76604444311897801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8191520442889918</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8660254037844386</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93969262078590832</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.98480775301220802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Vermelho-Plana'!$G$24:$G$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>6.4547593035334389E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12145869200021733</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17750021366712293</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23224564821737004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28527834983783412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33619470764716258</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.38460721741828918</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43014743071958295</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47246875902988844</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.51124911148644736</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54619334619084858</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.57703551641708539</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.62550775888720678</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65519303433749498</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.2000445994579356E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.2000445994579356E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E67E-4CA3-8B27-5959788E05CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>-sy</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="6350" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Vermelho-Plana'!$D$3:$D$18</c:f>
@@ -10596,12 +10605,11 @@
           </c:trendline>
           <c:trendline>
             <c:spPr>
-              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -10611,8 +10619,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.5641102636478288E-2"/>
-                  <c:y val="-1.0935017917174628E-3"/>
+                  <c:x val="-4.1245311505593123E-2"/>
+                  <c:y val="-1.4098535954498153E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -10639,7 +10647,7 @@
                           <a:schemeClr val="accent1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 0,6556x + 0,338</a:t>
+                      <a:t>y = 0,6889x - 0,0143</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US">
                       <a:solidFill>
@@ -11639,10 +11647,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -14290,12 +14294,26 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.5641102636478288E-2"/>
-                  <c:y val="-1.0935017917174628E-3"/>
+                  <c:x val="-4.6271379077272599E-2"/>
+                  <c:y val="-5.3200000967712612E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -14322,7 +14340,7 @@
                           <a:schemeClr val="accent1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 0,6556x + 0,338</a:t>
+                      <a:t>y = 0,6828x - 0,0078</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US">
                       <a:solidFill>
@@ -25196,8 +25214,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25214,21 +25232,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -25532,7 +25550,7 @@
       <c r="A11" s="5">
         <v>45</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>28.5</v>
       </c>
       <c r="C11" s="5">
@@ -26103,15 +26121,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -26383,12 +26401,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="I13" s="9" t="s">
         <v>31</v>
       </c>
@@ -26692,7 +26710,7 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -26710,21 +26728,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -27599,15 +27617,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -27915,12 +27933,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="I14" s="7" t="s">
         <v>32</v>
       </c>
@@ -28214,8 +28232,8 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28232,21 +28250,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -28550,7 +28568,7 @@
       <c r="A11" s="5">
         <v>45</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>28.5</v>
       </c>
       <c r="C11" s="5">
@@ -29031,15 +29049,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -29347,12 +29365,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="I14" s="7" t="s">
         <v>32</v>
       </c>
@@ -29646,8 +29664,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29664,21 +29682,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -29982,7 +30000,7 @@
       <c r="A11" s="5">
         <v>45</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>27.75</v>
       </c>
       <c r="C11" s="5">
@@ -30499,15 +30517,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -30815,12 +30833,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="I14" s="7" t="s">
         <v>32</v>
       </c>
@@ -31108,9 +31126,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31260,26 +31281,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE7295F-EC5E-43B5-90FB-59A1A459F71F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31035FE3-FFA6-4B27-8A73-A608733C4984}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c5de1c3e-7813-4da7-ba52-5366b85aaf02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31303,9 +31313,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31035FE3-FFA6-4B27-8A73-A608733C4984}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE7295F-EC5E-43B5-90FB-59A1A459F71F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c5de1c3e-7813-4da7-ba52-5366b85aaf02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>